--- a/raw_data/20200818_saline/20200818_Sensor0_Test_39.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_39.xlsx
@@ -1,736 +1,1152 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6494BE13-F58B-40B5-8227-07C0BB521B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>34203.187680</v>
+        <v>34203.187680000003</v>
       </c>
       <c r="B2" s="1">
-        <v>9.500885</v>
+        <v>9.5008850000000002</v>
       </c>
       <c r="C2" s="1">
-        <v>906.854000</v>
+        <v>906.85400000000004</v>
       </c>
       <c r="D2" s="1">
-        <v>-197.235000</v>
+        <v>-197.23500000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>34213.310529</v>
+        <v>34213.310529000002</v>
       </c>
       <c r="G2" s="1">
-        <v>9.503697</v>
+        <v>9.5036970000000007</v>
       </c>
       <c r="H2" s="1">
-        <v>924.238000</v>
+        <v>924.23800000000006</v>
       </c>
       <c r="I2" s="1">
-        <v>-167.133000</v>
+        <v>-167.13300000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>34224.173908</v>
+        <v>34224.173907999997</v>
       </c>
       <c r="L2" s="1">
-        <v>9.506715</v>
+        <v>9.5067149999999998</v>
       </c>
       <c r="M2" s="1">
-        <v>946.251000</v>
+        <v>946.25099999999998</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.919000</v>
+        <v>-119.919</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>34234.655365</v>
+        <v>34234.655364999999</v>
       </c>
       <c r="Q2" s="1">
-        <v>9.509626</v>
+        <v>9.5096260000000008</v>
       </c>
       <c r="R2" s="1">
-        <v>953.026000</v>
+        <v>953.02599999999995</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.354000</v>
+        <v>-104.354</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>34245.216220</v>
+        <v>34245.216220000002</v>
       </c>
       <c r="V2" s="1">
-        <v>9.512560</v>
+        <v>9.5125600000000006</v>
       </c>
       <c r="W2" s="1">
-        <v>959.570000</v>
+        <v>959.57</v>
       </c>
       <c r="X2" s="1">
-        <v>-90.482000</v>
+        <v>-90.481999999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>34255.647545</v>
       </c>
       <c r="AA2" s="1">
-        <v>9.515458</v>
+        <v>9.5154580000000006</v>
       </c>
       <c r="AB2" s="1">
-        <v>966.745000</v>
+        <v>966.745</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.719100</v>
+        <v>-80.719099999999997</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>34266.221800</v>
+        <v>34266.221799999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>9.518395</v>
+        <v>9.5183949999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>971.760000</v>
+        <v>971.76</v>
       </c>
       <c r="AH2" s="1">
-        <v>-80.302600</v>
+        <v>-80.302599999999998</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>34276.660559</v>
+        <v>34276.660559000004</v>
       </c>
       <c r="AK2" s="1">
-        <v>9.521295</v>
+        <v>9.5212950000000003</v>
       </c>
       <c r="AL2" s="1">
-        <v>979.709000</v>
+        <v>979.70899999999995</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.983200</v>
+        <v>-87.983199999999997</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>34287.429201</v>
+        <v>34287.429200999999</v>
       </c>
       <c r="AP2" s="1">
         <v>9.524286</v>
       </c>
       <c r="AQ2" s="1">
-        <v>988.888000</v>
+        <v>988.88800000000003</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.863000</v>
+        <v>-102.863</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>34298.399714</v>
+        <v>34298.399713999999</v>
       </c>
       <c r="AU2" s="1">
-        <v>9.527333</v>
+        <v>9.5273330000000005</v>
       </c>
       <c r="AV2" s="1">
-        <v>1000.280000</v>
+        <v>1000.28</v>
       </c>
       <c r="AW2" s="1">
-        <v>-124.401000</v>
+        <v>-124.401</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>34309.227378</v>
+        <v>34309.227378000003</v>
       </c>
       <c r="AZ2" s="1">
         <v>9.530341</v>
       </c>
       <c r="BA2" s="1">
-        <v>1009.910000</v>
+        <v>1009.91</v>
       </c>
       <c r="BB2" s="1">
-        <v>-143.200000</v>
+        <v>-143.19999999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>34320.145318</v>
+        <v>34320.145318000003</v>
       </c>
       <c r="BE2" s="1">
-        <v>9.533374</v>
+        <v>9.5333740000000002</v>
       </c>
       <c r="BF2" s="1">
-        <v>1055.020000</v>
+        <v>1055.02</v>
       </c>
       <c r="BG2" s="1">
-        <v>-228.246000</v>
+        <v>-228.24600000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>34331.158021</v>
+        <v>34331.158021000003</v>
       </c>
       <c r="BJ2" s="1">
-        <v>9.536433</v>
+        <v>9.5364330000000006</v>
       </c>
       <c r="BK2" s="1">
-        <v>1134.090000</v>
+        <v>1134.0899999999999</v>
       </c>
       <c r="BL2" s="1">
-        <v>-365.234000</v>
+        <v>-365.23399999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>34341.603735</v>
+        <v>34341.603734999997</v>
       </c>
       <c r="BO2" s="1">
-        <v>9.539334</v>
+        <v>9.5393340000000002</v>
       </c>
       <c r="BP2" s="1">
-        <v>1265.270000</v>
+        <v>1265.27</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-577.763000</v>
+        <v>-577.76300000000003</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>34351.998394</v>
+        <v>34351.998394000002</v>
       </c>
       <c r="BT2" s="1">
-        <v>9.542222</v>
+        <v>9.5422220000000006</v>
       </c>
       <c r="BU2" s="1">
-        <v>1413.520000</v>
+        <v>1413.52</v>
       </c>
       <c r="BV2" s="1">
-        <v>-805.380000</v>
+        <v>-805.38</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>34362.662417</v>
       </c>
       <c r="BY2" s="1">
-        <v>9.545184</v>
+        <v>9.5451840000000008</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1576.080000</v>
+        <v>1576.08</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1043.260000</v>
+        <v>-1043.26</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>34373.990014</v>
+        <v>34373.990014000003</v>
       </c>
       <c r="CD2" s="1">
-        <v>9.548331</v>
+        <v>9.5483309999999992</v>
       </c>
       <c r="CE2" s="1">
-        <v>1987.710000</v>
+        <v>1987.71</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1599.590000</v>
+        <v>-1599.59</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>34203.341967</v>
       </c>
@@ -738,420 +1154,420 @@
         <v>9.500928</v>
       </c>
       <c r="C3" s="1">
-        <v>907.121000</v>
+        <v>907.12099999999998</v>
       </c>
       <c r="D3" s="1">
-        <v>-197.377000</v>
+        <v>-197.37700000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>34213.730145</v>
+        <v>34213.730145000001</v>
       </c>
       <c r="G3" s="1">
-        <v>9.503814</v>
+        <v>9.5038140000000002</v>
       </c>
       <c r="H3" s="1">
-        <v>924.309000</v>
+        <v>924.30899999999997</v>
       </c>
       <c r="I3" s="1">
-        <v>-167.368000</v>
+        <v>-167.36799999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>34224.534002</v>
       </c>
       <c r="L3" s="1">
-        <v>9.506815</v>
+        <v>9.5068149999999996</v>
       </c>
       <c r="M3" s="1">
-        <v>946.449000</v>
+        <v>946.44899999999996</v>
       </c>
       <c r="N3" s="1">
-        <v>-119.940000</v>
+        <v>-119.94</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>34235.016484</v>
       </c>
       <c r="Q3" s="1">
-        <v>9.509727</v>
+        <v>9.5097269999999998</v>
       </c>
       <c r="R3" s="1">
-        <v>953.073000</v>
+        <v>953.07299999999998</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.343000</v>
+        <v>-104.343</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>34245.598103</v>
+        <v>34245.598102999997</v>
       </c>
       <c r="V3" s="1">
-        <v>9.512666</v>
+        <v>9.5126659999999994</v>
       </c>
       <c r="W3" s="1">
-        <v>959.587000</v>
+        <v>959.58699999999999</v>
       </c>
       <c r="X3" s="1">
-        <v>-90.469200</v>
+        <v>-90.469200000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>34256.384136</v>
+        <v>34256.384136000001</v>
       </c>
       <c r="AA3" s="1">
-        <v>9.515662</v>
+        <v>9.5156620000000007</v>
       </c>
       <c r="AB3" s="1">
-        <v>966.829000</v>
+        <v>966.82899999999995</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.784500</v>
+        <v>-80.784499999999994</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>34266.941450</v>
+        <v>34266.941449999998</v>
       </c>
       <c r="AF3" s="1">
-        <v>9.518595</v>
+        <v>9.5185949999999995</v>
       </c>
       <c r="AG3" s="1">
-        <v>971.764000</v>
+        <v>971.76400000000001</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.267700</v>
+        <v>-80.267700000000005</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>34277.015693</v>
+        <v>34277.015693000001</v>
       </c>
       <c r="AK3" s="1">
-        <v>9.521393</v>
+        <v>9.5213929999999998</v>
       </c>
       <c r="AL3" s="1">
-        <v>979.701000</v>
+        <v>979.70100000000002</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.962000</v>
+        <v>-87.962000000000003</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>34287.793264</v>
       </c>
       <c r="AP3" s="1">
-        <v>9.524387</v>
+        <v>9.5243870000000008</v>
       </c>
       <c r="AQ3" s="1">
-        <v>988.904000</v>
+        <v>988.904</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.887000</v>
+        <v>-102.887</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>34298.821346</v>
+        <v>34298.821345999997</v>
       </c>
       <c r="AU3" s="1">
-        <v>9.527450</v>
+        <v>9.52745</v>
       </c>
       <c r="AV3" s="1">
-        <v>1000.300000</v>
+        <v>1000.3</v>
       </c>
       <c r="AW3" s="1">
-        <v>-124.402000</v>
+        <v>-124.402</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>34309.919327</v>
+        <v>34309.919327000003</v>
       </c>
       <c r="AZ3" s="1">
-        <v>9.530533</v>
+        <v>9.5305330000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1009.900000</v>
+        <v>1009.9</v>
       </c>
       <c r="BB3" s="1">
-        <v>-143.188000</v>
+        <v>-143.18799999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>34320.585268</v>
+        <v>34320.585268000003</v>
       </c>
       <c r="BE3" s="1">
-        <v>9.533496</v>
+        <v>9.5334959999999995</v>
       </c>
       <c r="BF3" s="1">
-        <v>1055.000000</v>
+        <v>1055</v>
       </c>
       <c r="BG3" s="1">
-        <v>-228.238000</v>
+        <v>-228.238</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>34331.621750</v>
+        <v>34331.621749999998</v>
       </c>
       <c r="BJ3" s="1">
         <v>9.536562</v>
       </c>
       <c r="BK3" s="1">
-        <v>1134.120000</v>
+        <v>1134.1199999999999</v>
       </c>
       <c r="BL3" s="1">
-        <v>-365.247000</v>
+        <v>-365.24700000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>34342.043191</v>
+        <v>34342.043190999997</v>
       </c>
       <c r="BO3" s="1">
-        <v>9.539456</v>
+        <v>9.5394559999999995</v>
       </c>
       <c r="BP3" s="1">
-        <v>1265.260000</v>
+        <v>1265.26</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-577.806000</v>
+        <v>-577.80600000000004</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>34352.470089</v>
+        <v>34352.470089000002</v>
       </c>
       <c r="BT3" s="1">
-        <v>9.542353</v>
+        <v>9.5423530000000003</v>
       </c>
       <c r="BU3" s="1">
-        <v>1413.500000</v>
+        <v>1413.5</v>
       </c>
       <c r="BV3" s="1">
-        <v>-805.529000</v>
+        <v>-805.529</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>34363.144035</v>
+        <v>34363.144034999998</v>
       </c>
       <c r="BY3" s="1">
         <v>9.545318</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1576.080000</v>
+        <v>1576.08</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1043.280000</v>
+        <v>-1043.28</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>34374.536627</v>
+        <v>34374.536627000001</v>
       </c>
       <c r="CD3" s="1">
-        <v>9.548482</v>
+        <v>9.5484819999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1989.030000</v>
+        <v>1989.03</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1600.280000</v>
+        <v>-1600.28</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>34203.681694</v>
+        <v>34203.681693999999</v>
       </c>
       <c r="B4" s="1">
         <v>9.501023</v>
       </c>
       <c r="C4" s="1">
-        <v>906.832000</v>
+        <v>906.83199999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-197.293000</v>
+        <v>-197.29300000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>34214.070932</v>
+        <v>34214.070932000002</v>
       </c>
       <c r="G4" s="1">
-        <v>9.503909</v>
+        <v>9.5039090000000002</v>
       </c>
       <c r="H4" s="1">
-        <v>924.125000</v>
+        <v>924.125</v>
       </c>
       <c r="I4" s="1">
-        <v>-167.213000</v>
+        <v>-167.21299999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>34224.879219</v>
+        <v>34224.879219000002</v>
       </c>
       <c r="L4" s="1">
-        <v>9.506911</v>
+        <v>9.5069110000000006</v>
       </c>
       <c r="M4" s="1">
-        <v>946.368000</v>
+        <v>946.36800000000005</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.942000</v>
+        <v>-119.94199999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>34235.711347</v>
+        <v>34235.711346999997</v>
       </c>
       <c r="Q4" s="1">
-        <v>9.509920</v>
+        <v>9.5099199999999993</v>
       </c>
       <c r="R4" s="1">
-        <v>953.086000</v>
+        <v>953.08600000000001</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.326000</v>
+        <v>-104.32599999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>34246.283114</v>
+        <v>34246.283113999998</v>
       </c>
       <c r="V4" s="1">
-        <v>9.512856</v>
+        <v>9.5128559999999993</v>
       </c>
       <c r="W4" s="1">
-        <v>959.492000</v>
+        <v>959.49199999999996</v>
       </c>
       <c r="X4" s="1">
-        <v>-90.541600</v>
+        <v>-90.541600000000003</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>34256.735799</v>
+        <v>34256.735799000002</v>
       </c>
       <c r="AA4" s="1">
-        <v>9.515760</v>
+        <v>9.5157600000000002</v>
       </c>
       <c r="AB4" s="1">
-        <v>966.745000</v>
+        <v>966.745</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.725500</v>
+        <v>-80.725499999999997</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>34267.283195</v>
+        <v>34267.283195000004</v>
       </c>
       <c r="AF4" s="1">
-        <v>9.518690</v>
+        <v>9.5186899999999994</v>
       </c>
       <c r="AG4" s="1">
-        <v>971.740000</v>
+        <v>971.74</v>
       </c>
       <c r="AH4" s="1">
-        <v>-80.235400</v>
+        <v>-80.235399999999998</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>34277.361723</v>
+        <v>34277.361723000002</v>
       </c>
       <c r="AK4" s="1">
-        <v>9.521489</v>
+        <v>9.5214890000000008</v>
       </c>
       <c r="AL4" s="1">
-        <v>979.708000</v>
+        <v>979.70799999999997</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.996500</v>
+        <v>-87.996499999999997</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>34288.460771</v>
+        <v>34288.460770999998</v>
       </c>
       <c r="AP4" s="1">
-        <v>9.524572</v>
+        <v>9.5245719999999992</v>
       </c>
       <c r="AQ4" s="1">
-        <v>988.910000</v>
+        <v>988.91</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.872000</v>
+        <v>-102.872</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>34299.496863</v>
       </c>
       <c r="AU4" s="1">
-        <v>9.527638</v>
+        <v>9.5276379999999996</v>
       </c>
       <c r="AV4" s="1">
-        <v>1000.280000</v>
+        <v>1000.28</v>
       </c>
       <c r="AW4" s="1">
-        <v>-124.422000</v>
+        <v>-124.422</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>34310.324534</v>
+        <v>34310.324533999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>9.530646</v>
+        <v>9.5306460000000008</v>
       </c>
       <c r="BA4" s="1">
-        <v>1009.910000</v>
+        <v>1009.91</v>
       </c>
       <c r="BB4" s="1">
-        <v>-143.200000</v>
+        <v>-143.19999999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>34320.942915</v>
@@ -1160,2765 +1576,2765 @@
         <v>9.533595</v>
       </c>
       <c r="BF4" s="1">
-        <v>1055.030000</v>
+        <v>1055.03</v>
       </c>
       <c r="BG4" s="1">
-        <v>-228.259000</v>
+        <v>-228.25899999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>34332.018085</v>
+        <v>34332.018085000003</v>
       </c>
       <c r="BJ4" s="1">
-        <v>9.536672</v>
+        <v>9.5366719999999994</v>
       </c>
       <c r="BK4" s="1">
-        <v>1134.070000</v>
+        <v>1134.07</v>
       </c>
       <c r="BL4" s="1">
-        <v>-365.254000</v>
+        <v>-365.25400000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>34342.442007</v>
+        <v>34342.442006999998</v>
       </c>
       <c r="BO4" s="1">
-        <v>9.539567</v>
+        <v>9.5395669999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1265.250000</v>
+        <v>1265.25</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-577.790000</v>
+        <v>-577.79</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>34352.853529</v>
       </c>
       <c r="BT4" s="1">
-        <v>9.542459</v>
+        <v>9.5424589999999991</v>
       </c>
       <c r="BU4" s="1">
-        <v>1413.540000</v>
+        <v>1413.54</v>
       </c>
       <c r="BV4" s="1">
-        <v>-805.676000</v>
+        <v>-805.67600000000004</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>34363.594858</v>
+        <v>34363.594857999997</v>
       </c>
       <c r="BY4" s="1">
-        <v>9.545443</v>
+        <v>9.5454430000000006</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1575.970000</v>
+        <v>1575.97</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1043.280000</v>
+        <v>-1043.28</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>34375.054461</v>
       </c>
       <c r="CD4" s="1">
-        <v>9.548626</v>
+        <v>9.5486260000000005</v>
       </c>
       <c r="CE4" s="1">
-        <v>1989.340000</v>
+        <v>1989.34</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1598.190000</v>
+        <v>-1598.19</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>34204.023452</v>
+        <v>34204.023452000001</v>
       </c>
       <c r="B5" s="1">
         <v>9.501118</v>
       </c>
       <c r="C5" s="1">
-        <v>907.033000</v>
+        <v>907.03300000000002</v>
       </c>
       <c r="D5" s="1">
-        <v>-197.394000</v>
+        <v>-197.39400000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>34214.418128</v>
+        <v>34214.418127999998</v>
       </c>
       <c r="G5" s="1">
-        <v>9.504005</v>
+        <v>9.5040049999999994</v>
       </c>
       <c r="H5" s="1">
-        <v>923.629000</v>
+        <v>923.62900000000002</v>
       </c>
       <c r="I5" s="1">
-        <v>-167.705000</v>
+        <v>-167.70500000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>34225.569153</v>
+        <v>34225.569152999997</v>
       </c>
       <c r="L5" s="1">
-        <v>9.507103</v>
+        <v>9.5071030000000007</v>
       </c>
       <c r="M5" s="1">
-        <v>946.494000</v>
+        <v>946.49400000000003</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.708000</v>
+        <v>-119.708</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>34236.059539</v>
+        <v>34236.059539000002</v>
       </c>
       <c r="Q5" s="1">
-        <v>9.510017</v>
+        <v>9.5100169999999995</v>
       </c>
       <c r="R5" s="1">
-        <v>953.054000</v>
+        <v>953.05399999999997</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.349000</v>
+        <v>-104.349</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>34246.627302</v>
+        <v>34246.627302000001</v>
       </c>
       <c r="V5" s="1">
-        <v>9.512952</v>
+        <v>9.5129520000000003</v>
       </c>
       <c r="W5" s="1">
-        <v>959.569000</v>
+        <v>959.56899999999996</v>
       </c>
       <c r="X5" s="1">
-        <v>-90.511200</v>
+        <v>-90.511200000000002</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>34257.084951</v>
+        <v>34257.084950999997</v>
       </c>
       <c r="AA5" s="1">
-        <v>9.515857</v>
+        <v>9.5158570000000005</v>
       </c>
       <c r="AB5" s="1">
-        <v>966.807000</v>
+        <v>966.80700000000002</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.707800</v>
+        <v>-80.707800000000006</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>34267.628417</v>
       </c>
       <c r="AF5" s="1">
-        <v>9.518786</v>
+        <v>9.5187860000000004</v>
       </c>
       <c r="AG5" s="1">
-        <v>971.751000</v>
+        <v>971.75099999999998</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.272500</v>
+        <v>-80.272499999999994</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>34278.021085</v>
       </c>
       <c r="AK5" s="1">
-        <v>9.521673</v>
+        <v>9.5216729999999998</v>
       </c>
       <c r="AL5" s="1">
-        <v>979.708000</v>
+        <v>979.70799999999997</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.949000</v>
+        <v>-87.948999999999998</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>34288.876529</v>
+        <v>34288.876529000001</v>
       </c>
       <c r="AP5" s="1">
-        <v>9.524688</v>
+        <v>9.5246879999999994</v>
       </c>
       <c r="AQ5" s="1">
-        <v>988.909000</v>
+        <v>988.90899999999999</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.856000</v>
+        <v>-102.85599999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>34299.946735</v>
+        <v>34299.946734999998</v>
       </c>
       <c r="AU5" s="1">
-        <v>9.527763</v>
+        <v>9.5277630000000002</v>
       </c>
       <c r="AV5" s="1">
-        <v>1000.290000</v>
+        <v>1000.29</v>
       </c>
       <c r="AW5" s="1">
-        <v>-124.437000</v>
+        <v>-124.437</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>34310.707476</v>
+        <v>34310.707476000003</v>
       </c>
       <c r="AZ5" s="1">
-        <v>9.530752</v>
+        <v>9.5307519999999997</v>
       </c>
       <c r="BA5" s="1">
-        <v>1009.910000</v>
+        <v>1009.91</v>
       </c>
       <c r="BB5" s="1">
-        <v>-143.183000</v>
+        <v>-143.18299999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>34321.311411</v>
+        <v>34321.311411000002</v>
       </c>
       <c r="BE5" s="1">
-        <v>9.533698</v>
+        <v>9.5336979999999993</v>
       </c>
       <c r="BF5" s="1">
-        <v>1055.010000</v>
+        <v>1055.01</v>
       </c>
       <c r="BG5" s="1">
-        <v>-228.230000</v>
+        <v>-228.23</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>34332.395011</v>
+        <v>34332.395011000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>9.536776</v>
+        <v>9.5367759999999997</v>
       </c>
       <c r="BK5" s="1">
-        <v>1134.110000</v>
+        <v>1134.1099999999999</v>
       </c>
       <c r="BL5" s="1">
-        <v>-365.204000</v>
+        <v>-365.20400000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>34342.862583</v>
+        <v>34342.862583000002</v>
       </c>
       <c r="BO5" s="1">
-        <v>9.539684</v>
+        <v>9.5396839999999994</v>
       </c>
       <c r="BP5" s="1">
-        <v>1265.260000</v>
+        <v>1265.26</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-577.801000</v>
+        <v>-577.80100000000004</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>34353.297416</v>
+        <v>34353.297416000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>9.542583</v>
+        <v>9.5425830000000005</v>
       </c>
       <c r="BU5" s="1">
-        <v>1413.510000</v>
+        <v>1413.51</v>
       </c>
       <c r="BV5" s="1">
-        <v>-805.722000</v>
+        <v>-805.72199999999998</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>34364.013978</v>
+        <v>34364.013978000003</v>
       </c>
       <c r="BY5" s="1">
-        <v>9.545559</v>
+        <v>9.5455590000000008</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1576.090000</v>
+        <v>1576.09</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1043.350000</v>
+        <v>-1043.3499999999999</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>34375.596059</v>
+        <v>34375.596059000003</v>
       </c>
       <c r="CD5" s="1">
-        <v>9.548777</v>
+        <v>9.5487769999999994</v>
       </c>
       <c r="CE5" s="1">
-        <v>1988.350000</v>
+        <v>1988.35</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1599.680000</v>
+        <v>-1599.68</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>34204.707948</v>
+        <v>34204.707948000003</v>
       </c>
       <c r="B6" s="1">
-        <v>9.501308</v>
+        <v>9.5013079999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>906.943000</v>
+        <v>906.94299999999998</v>
       </c>
       <c r="D6" s="1">
-        <v>-197.309000</v>
+        <v>-197.309</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>34215.108564</v>
+        <v>34215.108564000002</v>
       </c>
       <c r="G6" s="1">
-        <v>9.504197</v>
+        <v>9.5041969999999996</v>
       </c>
       <c r="H6" s="1">
-        <v>923.968000</v>
+        <v>923.96799999999996</v>
       </c>
       <c r="I6" s="1">
-        <v>-167.240000</v>
+        <v>-167.24</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>34225.914370</v>
+        <v>34225.914369999999</v>
       </c>
       <c r="L6" s="1">
-        <v>9.507198</v>
+        <v>9.5071980000000007</v>
       </c>
       <c r="M6" s="1">
-        <v>946.472000</v>
+        <v>946.47199999999998</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.938000</v>
+        <v>-119.938</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>34236.408723</v>
       </c>
       <c r="Q6" s="1">
-        <v>9.510114</v>
+        <v>9.5101139999999997</v>
       </c>
       <c r="R6" s="1">
-        <v>953.070000</v>
+        <v>953.07</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.333000</v>
+        <v>-104.333</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>34246.971029</v>
       </c>
       <c r="V6" s="1">
-        <v>9.513048</v>
+        <v>9.5130479999999995</v>
       </c>
       <c r="W6" s="1">
-        <v>959.510000</v>
+        <v>959.51</v>
       </c>
       <c r="X6" s="1">
-        <v>-90.433100</v>
+        <v>-90.433099999999996</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>34257.747638</v>
+        <v>34257.747638000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>9.516041</v>
+        <v>9.5160409999999995</v>
       </c>
       <c r="AB6" s="1">
-        <v>966.834000</v>
+        <v>966.83399999999995</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.737300</v>
+        <v>-80.737300000000005</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>34268.100603</v>
+        <v>34268.100602999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>9.518917</v>
+        <v>9.5189170000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>971.712000</v>
+        <v>971.71199999999999</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.300500</v>
+        <v>-80.3005</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>34278.407964</v>
+        <v>34278.407963999998</v>
       </c>
       <c r="AK6" s="1">
-        <v>9.521780</v>
+        <v>9.5217799999999997</v>
       </c>
       <c r="AL6" s="1">
-        <v>979.706000</v>
+        <v>979.70600000000002</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.980400</v>
+        <v>-87.980400000000003</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>34289.252990</v>
+        <v>34289.252990000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>9.524792</v>
+        <v>9.5247919999999997</v>
       </c>
       <c r="AQ6" s="1">
-        <v>988.921000</v>
+        <v>988.92100000000005</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.875000</v>
+        <v>-102.875</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>34300.314270</v>
+        <v>34300.314270000003</v>
       </c>
       <c r="AU6" s="1">
-        <v>9.527865</v>
+        <v>9.5278650000000003</v>
       </c>
       <c r="AV6" s="1">
-        <v>1000.300000</v>
+        <v>1000.3</v>
       </c>
       <c r="AW6" s="1">
-        <v>-124.429000</v>
+        <v>-124.429</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>34311.091344</v>
       </c>
       <c r="AZ6" s="1">
-        <v>9.530859</v>
+        <v>9.5308589999999995</v>
       </c>
       <c r="BA6" s="1">
-        <v>1009.900000</v>
+        <v>1009.9</v>
       </c>
       <c r="BB6" s="1">
-        <v>-143.175000</v>
+        <v>-143.17500000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>34321.734002</v>
+        <v>34321.734001999997</v>
       </c>
       <c r="BE6" s="1">
-        <v>9.533815</v>
+        <v>9.5338150000000006</v>
       </c>
       <c r="BF6" s="1">
-        <v>1055.020000</v>
+        <v>1055.02</v>
       </c>
       <c r="BG6" s="1">
-        <v>-228.269000</v>
+        <v>-228.26900000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>34332.815160</v>
+        <v>34332.815159999998</v>
       </c>
       <c r="BJ6" s="1">
-        <v>9.536893</v>
+        <v>9.5368929999999992</v>
       </c>
       <c r="BK6" s="1">
-        <v>1134.120000</v>
+        <v>1134.1199999999999</v>
       </c>
       <c r="BL6" s="1">
-        <v>-365.220000</v>
+        <v>-365.22</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>34343.258885</v>
+        <v>34343.258885000003</v>
       </c>
       <c r="BO6" s="1">
-        <v>9.539794</v>
+        <v>9.5397940000000006</v>
       </c>
       <c r="BP6" s="1">
-        <v>1265.280000</v>
+        <v>1265.28</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-577.827000</v>
+        <v>-577.827</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>34353.695207</v>
+        <v>34353.695206999997</v>
       </c>
       <c r="BT6" s="1">
-        <v>9.542693</v>
+        <v>9.5426929999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1413.400000</v>
+        <v>1413.4</v>
       </c>
       <c r="BV6" s="1">
-        <v>-805.858000</v>
+        <v>-805.85799999999995</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>34364.434585</v>
+        <v>34364.434585000003</v>
       </c>
       <c r="BY6" s="1">
-        <v>9.545676</v>
+        <v>9.5456760000000003</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1576.120000</v>
+        <v>1576.12</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1043.320000</v>
+        <v>-1043.32</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>34376.134219</v>
       </c>
       <c r="CD6" s="1">
-        <v>9.548926</v>
+        <v>9.5489259999999998</v>
       </c>
       <c r="CE6" s="1">
-        <v>1989.870000</v>
+        <v>1989.87</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1599.310000</v>
+        <v>-1599.31</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>34205.049692</v>
+        <v>34205.049692000001</v>
       </c>
       <c r="B7" s="1">
-        <v>9.501403</v>
+        <v>9.5014029999999998</v>
       </c>
       <c r="C7" s="1">
-        <v>906.977000</v>
+        <v>906.97699999999998</v>
       </c>
       <c r="D7" s="1">
-        <v>-197.479000</v>
+        <v>-197.47900000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>34215.450767</v>
+        <v>34215.450767000002</v>
       </c>
       <c r="G7" s="1">
-        <v>9.504292</v>
+        <v>9.5042919999999995</v>
       </c>
       <c r="H7" s="1">
-        <v>924.236000</v>
+        <v>924.23599999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-167.436000</v>
+        <v>-167.43600000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>34226.263056</v>
+        <v>34226.263056000003</v>
       </c>
       <c r="L7" s="1">
-        <v>9.507295</v>
+        <v>9.5072949999999992</v>
       </c>
       <c r="M7" s="1">
-        <v>946.412000</v>
+        <v>946.41200000000003</v>
       </c>
       <c r="N7" s="1">
-        <v>-120.010000</v>
+        <v>-120.01</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>34237.066914</v>
+        <v>34237.066914000003</v>
       </c>
       <c r="Q7" s="1">
-        <v>9.510296</v>
+        <v>9.5102960000000003</v>
       </c>
       <c r="R7" s="1">
-        <v>953.017000</v>
+        <v>953.01700000000005</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.352000</v>
+        <v>-104.352</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>34247.623765</v>
+        <v>34247.623764999997</v>
       </c>
       <c r="V7" s="1">
-        <v>9.513229</v>
+        <v>9.5132290000000008</v>
       </c>
       <c r="W7" s="1">
-        <v>959.469000</v>
+        <v>959.46900000000005</v>
       </c>
       <c r="X7" s="1">
-        <v>-90.424800</v>
+        <v>-90.424800000000005</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>34258.127574</v>
+        <v>34258.127573999998</v>
       </c>
       <c r="AA7" s="1">
-        <v>9.516147</v>
+        <v>9.5161470000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>966.838000</v>
+        <v>966.83799999999997</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.790600</v>
+        <v>-80.790599999999998</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>34268.342649</v>
+        <v>34268.342648999998</v>
       </c>
       <c r="AF7" s="1">
-        <v>9.518984</v>
+        <v>9.5189839999999997</v>
       </c>
       <c r="AG7" s="1">
-        <v>971.748000</v>
+        <v>971.74800000000005</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.280700</v>
+        <v>-80.280699999999996</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>34278.757183</v>
+        <v>34278.757183000002</v>
       </c>
       <c r="AK7" s="1">
-        <v>9.521877</v>
+        <v>9.5218769999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>979.722000</v>
+        <v>979.72199999999998</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.971800</v>
+        <v>-87.971800000000002</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>34289.611598</v>
+        <v>34289.611598000003</v>
       </c>
       <c r="AP7" s="1">
-        <v>9.524892</v>
+        <v>9.5248919999999995</v>
       </c>
       <c r="AQ7" s="1">
-        <v>988.894000</v>
+        <v>988.89400000000001</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.842000</v>
+        <v>-102.842</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>34300.679326</v>
+        <v>34300.679325999998</v>
       </c>
       <c r="AU7" s="1">
-        <v>9.527966</v>
+        <v>9.5279659999999993</v>
       </c>
       <c r="AV7" s="1">
-        <v>1000.280000</v>
+        <v>1000.28</v>
       </c>
       <c r="AW7" s="1">
-        <v>-124.407000</v>
+        <v>-124.407</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>34311.502562</v>
+        <v>34311.502562000001</v>
       </c>
       <c r="AZ7" s="1">
-        <v>9.530973</v>
+        <v>9.5309729999999995</v>
       </c>
       <c r="BA7" s="1">
-        <v>1009.890000</v>
+        <v>1009.89</v>
       </c>
       <c r="BB7" s="1">
-        <v>-143.175000</v>
+        <v>-143.17500000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>34322.033122</v>
+        <v>34322.033122000001</v>
       </c>
       <c r="BE7" s="1">
-        <v>9.533898</v>
+        <v>9.5338980000000006</v>
       </c>
       <c r="BF7" s="1">
-        <v>1055.000000</v>
+        <v>1055</v>
       </c>
       <c r="BG7" s="1">
-        <v>-228.250000</v>
+        <v>-228.25</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>34333.144964</v>
+        <v>34333.144963999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>9.536985</v>
+        <v>9.5369849999999996</v>
       </c>
       <c r="BK7" s="1">
-        <v>1134.110000</v>
+        <v>1134.1099999999999</v>
       </c>
       <c r="BL7" s="1">
-        <v>-365.238000</v>
+        <v>-365.238</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>34343.680981</v>
+        <v>34343.680980999998</v>
       </c>
       <c r="BO7" s="1">
         <v>9.539911</v>
       </c>
       <c r="BP7" s="1">
-        <v>1265.270000</v>
+        <v>1265.27</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-577.776000</v>
+        <v>-577.77599999999995</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>34354.126728</v>
+        <v>34354.126728000003</v>
       </c>
       <c r="BT7" s="1">
-        <v>9.542813</v>
+        <v>9.5428130000000007</v>
       </c>
       <c r="BU7" s="1">
-        <v>1413.270000</v>
+        <v>1413.27</v>
       </c>
       <c r="BV7" s="1">
-        <v>-805.809000</v>
+        <v>-805.80899999999997</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>34364.864617</v>
+        <v>34364.864616999999</v>
       </c>
       <c r="BY7" s="1">
-        <v>9.545796</v>
+        <v>9.5457959999999993</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1576.080000</v>
+        <v>1576.08</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1043.240000</v>
+        <v>-1043.24</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>34376.673370</v>
+        <v>34376.673369999997</v>
       </c>
       <c r="CD7" s="1">
-        <v>9.549076</v>
+        <v>9.5490759999999995</v>
       </c>
       <c r="CE7" s="1">
-        <v>1988.360000</v>
+        <v>1988.36</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1598.600000</v>
+        <v>-1598.6</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>34205.389917</v>
       </c>
       <c r="B8" s="1">
-        <v>9.501497</v>
+        <v>9.5014970000000005</v>
       </c>
       <c r="C8" s="1">
-        <v>906.897000</v>
+        <v>906.89700000000005</v>
       </c>
       <c r="D8" s="1">
-        <v>-197.321000</v>
+        <v>-197.321</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>34215.797966</v>
+        <v>34215.797965999998</v>
       </c>
       <c r="G8" s="1">
-        <v>9.504388</v>
+        <v>9.5043880000000005</v>
       </c>
       <c r="H8" s="1">
-        <v>924.228000</v>
+        <v>924.22799999999995</v>
       </c>
       <c r="I8" s="1">
-        <v>-167.120000</v>
+        <v>-167.12</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>34226.922240</v>
+        <v>34226.92224</v>
       </c>
       <c r="L8" s="1">
-        <v>9.507478</v>
+        <v>9.5074780000000008</v>
       </c>
       <c r="M8" s="1">
-        <v>946.490000</v>
+        <v>946.49</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.847000</v>
+        <v>-119.84699999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>34237.455318</v>
       </c>
       <c r="Q8" s="1">
-        <v>9.510404</v>
+        <v>9.5104039999999994</v>
       </c>
       <c r="R8" s="1">
-        <v>953.046000</v>
+        <v>953.04600000000005</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.339000</v>
+        <v>-104.339</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>34248.000756</v>
+        <v>34248.000756000001</v>
       </c>
       <c r="V8" s="1">
-        <v>9.513334</v>
+        <v>9.5133340000000004</v>
       </c>
       <c r="W8" s="1">
-        <v>959.556000</v>
+        <v>959.55600000000004</v>
       </c>
       <c r="X8" s="1">
-        <v>-90.487300</v>
+        <v>-90.487300000000005</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>34258.475734</v>
       </c>
       <c r="AA8" s="1">
-        <v>9.516243</v>
+        <v>9.5162429999999993</v>
       </c>
       <c r="AB8" s="1">
-        <v>966.762000</v>
+        <v>966.76199999999994</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.795200</v>
+        <v>-80.795199999999994</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>34268.686873</v>
+        <v>34268.686872999999</v>
       </c>
       <c r="AF8" s="1">
-        <v>9.519080</v>
+        <v>9.5190800000000007</v>
       </c>
       <c r="AG8" s="1">
-        <v>971.776000</v>
+        <v>971.77599999999995</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.296000</v>
+        <v>-80.296000000000006</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>34279.101372</v>
+        <v>34279.101371999997</v>
       </c>
       <c r="AK8" s="1">
-        <v>9.521973</v>
+        <v>9.5219729999999991</v>
       </c>
       <c r="AL8" s="1">
-        <v>979.722000</v>
+        <v>979.72199999999998</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.955600</v>
+        <v>-87.955600000000004</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>34290.038156</v>
+        <v>34290.038156000002</v>
       </c>
       <c r="AP8" s="1">
-        <v>9.525011</v>
+        <v>9.5250109999999992</v>
       </c>
       <c r="AQ8" s="1">
-        <v>988.906000</v>
+        <v>988.90599999999995</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.865000</v>
+        <v>-102.86499999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>34301.109622</v>
+        <v>34301.109622000004</v>
       </c>
       <c r="AU8" s="1">
-        <v>9.528086</v>
+        <v>9.5280860000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1000.290000</v>
+        <v>1000.29</v>
       </c>
       <c r="AW8" s="1">
-        <v>-124.417000</v>
+        <v>-124.417</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>34311.806116</v>
       </c>
       <c r="AZ8" s="1">
-        <v>9.531057</v>
+        <v>9.5310570000000006</v>
       </c>
       <c r="BA8" s="1">
-        <v>1009.900000</v>
+        <v>1009.9</v>
       </c>
       <c r="BB8" s="1">
-        <v>-143.179000</v>
+        <v>-143.179</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>34322.392227</v>
+        <v>34322.392226999997</v>
       </c>
       <c r="BE8" s="1">
-        <v>9.533998</v>
+        <v>9.5339980000000004</v>
       </c>
       <c r="BF8" s="1">
-        <v>1055.020000</v>
+        <v>1055.02</v>
       </c>
       <c r="BG8" s="1">
-        <v>-228.251000</v>
+        <v>-228.251</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>34333.540033</v>
+        <v>34333.540032999997</v>
       </c>
       <c r="BJ8" s="1">
-        <v>9.537094</v>
+        <v>9.5370939999999997</v>
       </c>
       <c r="BK8" s="1">
-        <v>1134.090000</v>
+        <v>1134.0899999999999</v>
       </c>
       <c r="BL8" s="1">
-        <v>-365.236000</v>
+        <v>-365.23599999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>34344.080262</v>
+        <v>34344.080262000003</v>
       </c>
       <c r="BO8" s="1">
-        <v>9.540022</v>
+        <v>9.5400220000000004</v>
       </c>
       <c r="BP8" s="1">
-        <v>1265.270000</v>
+        <v>1265.27</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-577.780000</v>
+        <v>-577.78</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>34354.554895</v>
+        <v>34354.554895000001</v>
       </c>
       <c r="BT8" s="1">
-        <v>9.542932</v>
+        <v>9.5429320000000004</v>
       </c>
       <c r="BU8" s="1">
-        <v>1413.270000</v>
+        <v>1413.27</v>
       </c>
       <c r="BV8" s="1">
-        <v>-805.973000</v>
+        <v>-805.97299999999996</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>34365.285720</v>
+        <v>34365.28572</v>
       </c>
       <c r="BY8" s="1">
-        <v>9.545913</v>
+        <v>9.5459130000000005</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1576.110000</v>
+        <v>1576.11</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1043.280000</v>
+        <v>-1043.28</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>34377.216985</v>
+        <v>34377.216984999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>9.549227</v>
+        <v>9.5492270000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>1989.010000</v>
+        <v>1989.01</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1600.480000</v>
+        <v>-1600.48</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>34206.035707</v>
+        <v>34206.035707000003</v>
       </c>
       <c r="B9" s="1">
-        <v>9.501677</v>
+        <v>9.5016770000000008</v>
       </c>
       <c r="C9" s="1">
-        <v>906.850000</v>
+        <v>906.85</v>
       </c>
       <c r="D9" s="1">
-        <v>-197.267000</v>
+        <v>-197.267</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>34216.460621</v>
+        <v>34216.460620999998</v>
       </c>
       <c r="G9" s="1">
-        <v>9.504572</v>
+        <v>9.5045719999999996</v>
       </c>
       <c r="H9" s="1">
-        <v>924.100000</v>
+        <v>924.1</v>
       </c>
       <c r="I9" s="1">
-        <v>-167.217000</v>
+        <v>-167.21700000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>34227.296754</v>
+        <v>34227.296754000003</v>
       </c>
       <c r="L9" s="1">
-        <v>9.507582</v>
+        <v>9.5075819999999993</v>
       </c>
       <c r="M9" s="1">
-        <v>946.495000</v>
+        <v>946.495</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.895000</v>
+        <v>-119.895</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>34237.803473</v>
       </c>
       <c r="Q9" s="1">
-        <v>9.510501</v>
+        <v>9.5105009999999996</v>
       </c>
       <c r="R9" s="1">
-        <v>953.073000</v>
+        <v>953.07299999999998</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.300000</v>
+        <v>-104.3</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>34248.343955</v>
+        <v>34248.343954999997</v>
       </c>
       <c r="V9" s="1">
-        <v>9.513429</v>
+        <v>9.5134290000000004</v>
       </c>
       <c r="W9" s="1">
-        <v>959.520000</v>
+        <v>959.52</v>
       </c>
       <c r="X9" s="1">
-        <v>-90.456700</v>
+        <v>-90.456699999999998</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>34258.828389</v>
+        <v>34258.828389000002</v>
       </c>
       <c r="AA9" s="1">
-        <v>9.516341</v>
+        <v>9.5163410000000006</v>
       </c>
       <c r="AB9" s="1">
-        <v>966.803000</v>
+        <v>966.803</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.856300</v>
+        <v>-80.856300000000005</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>34269.110953</v>
+        <v>34269.110953000003</v>
       </c>
       <c r="AF9" s="1">
-        <v>9.519197</v>
+        <v>9.5191970000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>971.735000</v>
+        <v>971.73500000000001</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.295000</v>
+        <v>-80.295000000000002</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>34279.516523</v>
+        <v>34279.516522999998</v>
       </c>
       <c r="AK9" s="1">
-        <v>9.522088</v>
+        <v>9.5220880000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>979.726000</v>
+        <v>979.726</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.989000</v>
+        <v>-87.989000000000004</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>34290.336252</v>
+        <v>34290.336252000001</v>
       </c>
       <c r="AP9" s="1">
         <v>9.525093</v>
       </c>
       <c r="AQ9" s="1">
-        <v>988.906000</v>
+        <v>988.90599999999995</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.838000</v>
+        <v>-102.83799999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>34301.408445</v>
+        <v>34301.408445000001</v>
       </c>
       <c r="AU9" s="1">
-        <v>9.528169</v>
+        <v>9.5281690000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1000.310000</v>
+        <v>1000.31</v>
       </c>
       <c r="AW9" s="1">
-        <v>-124.416000</v>
+        <v>-124.416</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>34312.162238</v>
+        <v>34312.162237999997</v>
       </c>
       <c r="AZ9" s="1">
-        <v>9.531156</v>
+        <v>9.5311559999999993</v>
       </c>
       <c r="BA9" s="1">
-        <v>1009.890000</v>
+        <v>1009.89</v>
       </c>
       <c r="BB9" s="1">
-        <v>-143.189000</v>
+        <v>-143.18899999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>34322.752320</v>
+        <v>34322.75232</v>
       </c>
       <c r="BE9" s="1">
-        <v>9.534098</v>
+        <v>9.5340980000000002</v>
       </c>
       <c r="BF9" s="1">
-        <v>1055.010000</v>
+        <v>1055.01</v>
       </c>
       <c r="BG9" s="1">
-        <v>-228.269000</v>
+        <v>-228.26900000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>34333.919218</v>
+        <v>34333.919218000003</v>
       </c>
       <c r="BJ9" s="1">
-        <v>9.537200</v>
+        <v>9.5372000000000003</v>
       </c>
       <c r="BK9" s="1">
-        <v>1134.100000</v>
+        <v>1134.0999999999999</v>
       </c>
       <c r="BL9" s="1">
-        <v>-365.240000</v>
+        <v>-365.24</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>34344.498919</v>
+        <v>34344.498918999998</v>
       </c>
       <c r="BO9" s="1">
-        <v>9.540139</v>
+        <v>9.5401389999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1265.260000</v>
+        <v>1265.26</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-577.825000</v>
+        <v>-577.82500000000005</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>34354.969431</v>
+        <v>34354.969430999998</v>
       </c>
       <c r="BT9" s="1">
-        <v>9.543047</v>
+        <v>9.5430469999999996</v>
       </c>
       <c r="BU9" s="1">
-        <v>1413.130000</v>
+        <v>1413.13</v>
       </c>
       <c r="BV9" s="1">
-        <v>-805.960000</v>
+        <v>-805.96</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>34365.727656</v>
+        <v>34365.727656000003</v>
       </c>
       <c r="BY9" s="1">
-        <v>9.546035</v>
+        <v>9.5460349999999998</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1576.120000</v>
+        <v>1576.12</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1043.300000</v>
+        <v>-1043.3</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>34377.756632</v>
+        <v>34377.756631999997</v>
       </c>
       <c r="CD9" s="1">
-        <v>9.549377</v>
+        <v>9.5493769999999998</v>
       </c>
       <c r="CE9" s="1">
-        <v>1989.670000</v>
+        <v>1989.67</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1597.890000</v>
+        <v>-1597.89</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>34206.413692</v>
+        <v>34206.413692000002</v>
       </c>
       <c r="B10" s="1">
-        <v>9.501782</v>
+        <v>9.5017820000000004</v>
       </c>
       <c r="C10" s="1">
-        <v>906.947000</v>
+        <v>906.947</v>
       </c>
       <c r="D10" s="1">
-        <v>-197.269000</v>
+        <v>-197.26900000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>34216.834605</v>
+        <v>34216.834604999996</v>
       </c>
       <c r="G10" s="1">
-        <v>9.504676</v>
+        <v>9.5046759999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>923.578000</v>
+        <v>923.57799999999997</v>
       </c>
       <c r="I10" s="1">
-        <v>-167.741000</v>
+        <v>-167.74100000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>34227.643422</v>
+        <v>34227.643422000001</v>
       </c>
       <c r="L10" s="1">
-        <v>9.507679</v>
+        <v>9.5076789999999995</v>
       </c>
       <c r="M10" s="1">
-        <v>946.517000</v>
+        <v>946.51700000000005</v>
       </c>
       <c r="N10" s="1">
-        <v>-119.782000</v>
+        <v>-119.782</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>34238.153153</v>
+        <v>34238.153152999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>9.510598</v>
+        <v>9.5105979999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>953.066000</v>
+        <v>953.06600000000003</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.363000</v>
+        <v>-104.363</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>34248.695159</v>
+        <v>34248.695159000003</v>
       </c>
       <c r="V10" s="1">
-        <v>9.513526</v>
+        <v>9.5135260000000006</v>
       </c>
       <c r="W10" s="1">
-        <v>959.519000</v>
+        <v>959.51900000000001</v>
       </c>
       <c r="X10" s="1">
-        <v>-90.458900</v>
+        <v>-90.4589</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>34259.246052</v>
+        <v>34259.246052000002</v>
       </c>
       <c r="AA10" s="1">
-        <v>9.516457</v>
+        <v>9.5164570000000008</v>
       </c>
       <c r="AB10" s="1">
-        <v>966.613000</v>
+        <v>966.61300000000006</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.734900</v>
+        <v>-80.734899999999996</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>34269.382759</v>
       </c>
       <c r="AF10" s="1">
-        <v>9.519273</v>
+        <v>9.5192730000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>971.764000</v>
+        <v>971.76400000000001</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.302800</v>
+        <v>-80.302800000000005</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>34279.803738</v>
+        <v>34279.803738000002</v>
       </c>
       <c r="AK10" s="1">
-        <v>9.522168</v>
+        <v>9.5221680000000006</v>
       </c>
       <c r="AL10" s="1">
-        <v>979.722000</v>
+        <v>979.72199999999998</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.978000</v>
+        <v>-87.977999999999994</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>34290.694860</v>
+        <v>34290.694860000003</v>
       </c>
       <c r="AP10" s="1">
-        <v>9.525193</v>
+        <v>9.5251929999999998</v>
       </c>
       <c r="AQ10" s="1">
-        <v>988.880000</v>
+        <v>988.88</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.868000</v>
+        <v>-102.86799999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>34301.772012</v>
+        <v>34301.772012000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>9.528270</v>
+        <v>9.5282699999999991</v>
       </c>
       <c r="AV10" s="1">
-        <v>1000.290000</v>
+        <v>1000.29</v>
       </c>
       <c r="AW10" s="1">
-        <v>-124.410000</v>
+        <v>-124.41</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>34312.521838</v>
+        <v>34312.521838000001</v>
       </c>
       <c r="AZ10" s="1">
-        <v>9.531256</v>
+        <v>9.5312560000000008</v>
       </c>
       <c r="BA10" s="1">
-        <v>1009.920000</v>
+        <v>1009.92</v>
       </c>
       <c r="BB10" s="1">
-        <v>-143.187000</v>
+        <v>-143.18700000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>34323.479424</v>
+        <v>34323.479423999997</v>
       </c>
       <c r="BE10" s="1">
-        <v>9.534300</v>
+        <v>9.5343</v>
       </c>
       <c r="BF10" s="1">
-        <v>1055.010000</v>
+        <v>1055.01</v>
       </c>
       <c r="BG10" s="1">
-        <v>-228.258000</v>
+        <v>-228.25800000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>34334.670197</v>
+        <v>34334.670196999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>9.537408</v>
+        <v>9.5374079999999992</v>
       </c>
       <c r="BK10" s="1">
-        <v>1134.070000</v>
+        <v>1134.07</v>
       </c>
       <c r="BL10" s="1">
-        <v>-365.243000</v>
+        <v>-365.24299999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>34344.897201</v>
       </c>
       <c r="BO10" s="1">
-        <v>9.540249</v>
+        <v>9.5402489999999993</v>
       </c>
       <c r="BP10" s="1">
-        <v>1265.240000</v>
+        <v>1265.24</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-577.829000</v>
+        <v>-577.82899999999995</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>34355.398966</v>
+        <v>34355.398966000001</v>
       </c>
       <c r="BT10" s="1">
-        <v>9.543166</v>
+        <v>9.5431659999999994</v>
       </c>
       <c r="BU10" s="1">
-        <v>1412.960000</v>
+        <v>1412.96</v>
       </c>
       <c r="BV10" s="1">
-        <v>-805.952000</v>
+        <v>-805.952</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>34366.150249</v>
+        <v>34366.150248999998</v>
       </c>
       <c r="BY10" s="1">
-        <v>9.546153</v>
+        <v>9.5461530000000003</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1576.170000</v>
+        <v>1576.17</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1043.480000</v>
+        <v>-1043.48</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>34378.601814</v>
+        <v>34378.601814000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>9.549612</v>
+        <v>9.5496119999999998</v>
       </c>
       <c r="CE10" s="1">
-        <v>1989.470000</v>
+        <v>1989.47</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1600.460000</v>
+        <v>-1600.46</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>34206.757386</v>
+        <v>34206.757385999997</v>
       </c>
       <c r="B11" s="1">
-        <v>9.501877</v>
+        <v>9.5018770000000004</v>
       </c>
       <c r="C11" s="1">
-        <v>906.931000</v>
+        <v>906.93100000000004</v>
       </c>
       <c r="D11" s="1">
-        <v>-197.249000</v>
+        <v>-197.249</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>34217.179821</v>
+        <v>34217.179820999998</v>
       </c>
       <c r="G11" s="1">
-        <v>9.504772</v>
+        <v>9.5047720000000009</v>
       </c>
       <c r="H11" s="1">
-        <v>923.827000</v>
+        <v>923.827</v>
       </c>
       <c r="I11" s="1">
-        <v>-167.688000</v>
+        <v>-167.68799999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>34227.989172</v>
+        <v>34227.989172000001</v>
       </c>
       <c r="L11" s="1">
-        <v>9.507775</v>
+        <v>9.5077750000000005</v>
       </c>
       <c r="M11" s="1">
-        <v>946.424000</v>
+        <v>946.42399999999998</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.732000</v>
+        <v>-119.732</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>34238.578719</v>
+        <v>34238.578718999997</v>
       </c>
       <c r="Q11" s="1">
-        <v>9.510716</v>
+        <v>9.5107160000000004</v>
       </c>
       <c r="R11" s="1">
-        <v>953.080000</v>
+        <v>953.08</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.371000</v>
+        <v>-104.371</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>34249.122178</v>
+        <v>34249.122177999998</v>
       </c>
       <c r="V11" s="1">
-        <v>9.513645</v>
+        <v>9.5136450000000004</v>
       </c>
       <c r="W11" s="1">
-        <v>959.505000</v>
+        <v>959.505</v>
       </c>
       <c r="X11" s="1">
-        <v>-90.517000</v>
+        <v>-90.516999999999996</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>34259.522788</v>
+        <v>34259.522788000002</v>
       </c>
       <c r="AA11" s="1">
         <v>9.516534</v>
       </c>
       <c r="AB11" s="1">
-        <v>966.744000</v>
+        <v>966.74400000000003</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.819000</v>
+        <v>-80.819000000000003</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>34269.726519</v>
+        <v>34269.726519000003</v>
       </c>
       <c r="AF11" s="1">
-        <v>9.519368</v>
+        <v>9.5193680000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>971.760000</v>
+        <v>971.76</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.263500</v>
+        <v>-80.263499999999993</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>34280.148457</v>
+        <v>34280.148457000003</v>
       </c>
       <c r="AK11" s="1">
-        <v>9.522263</v>
+        <v>9.5222630000000006</v>
       </c>
       <c r="AL11" s="1">
-        <v>979.704000</v>
+        <v>979.70399999999995</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.969400</v>
+        <v>-87.969399999999993</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>34291.053006</v>
+        <v>34291.053006000002</v>
       </c>
       <c r="AP11" s="1">
-        <v>9.525293</v>
+        <v>9.5252929999999996</v>
       </c>
       <c r="AQ11" s="1">
-        <v>988.903000</v>
+        <v>988.90300000000002</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.889000</v>
+        <v>-102.889</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>34302.231840</v>
+        <v>34302.23184</v>
       </c>
       <c r="AU11" s="1">
-        <v>9.528398</v>
+        <v>9.5283979999999993</v>
       </c>
       <c r="AV11" s="1">
-        <v>1000.290000</v>
+        <v>1000.29</v>
       </c>
       <c r="AW11" s="1">
-        <v>-124.418000</v>
+        <v>-124.41800000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>34313.241016</v>
       </c>
       <c r="AZ11" s="1">
-        <v>9.531456</v>
+        <v>9.5314560000000004</v>
       </c>
       <c r="BA11" s="1">
-        <v>1009.880000</v>
+        <v>1009.88</v>
       </c>
       <c r="BB11" s="1">
-        <v>-143.186000</v>
+        <v>-143.18600000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>34323.865808</v>
+        <v>34323.865808000002</v>
       </c>
       <c r="BE11" s="1">
-        <v>9.534407</v>
+        <v>9.5344069999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1055.020000</v>
+        <v>1055.02</v>
       </c>
       <c r="BG11" s="1">
-        <v>-228.234000</v>
+        <v>-228.23400000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>34335.045137</v>
+        <v>34335.045137000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>9.537513</v>
+        <v>9.5375130000000006</v>
       </c>
       <c r="BK11" s="1">
-        <v>1134.100000</v>
+        <v>1134.0999999999999</v>
       </c>
       <c r="BL11" s="1">
-        <v>-365.239000</v>
+        <v>-365.23899999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>34345.318275</v>
+        <v>34345.318274999998</v>
       </c>
       <c r="BO11" s="1">
-        <v>9.540366</v>
+        <v>9.5403660000000006</v>
       </c>
       <c r="BP11" s="1">
-        <v>1265.300000</v>
+        <v>1265.3</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-577.820000</v>
+        <v>-577.82000000000005</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>34356.137044</v>
+        <v>34356.137044000003</v>
       </c>
       <c r="BT11" s="1">
-        <v>9.543371</v>
+        <v>9.5433710000000005</v>
       </c>
       <c r="BU11" s="1">
-        <v>1412.910000</v>
+        <v>1412.91</v>
       </c>
       <c r="BV11" s="1">
-        <v>-805.758000</v>
+        <v>-805.75800000000004</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>34366.874940</v>
+        <v>34366.874940000002</v>
       </c>
       <c r="BY11" s="1">
-        <v>9.546354</v>
+        <v>9.5463539999999991</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1576.120000</v>
+        <v>1576.12</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1043.380000</v>
+        <v>-1043.3800000000001</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>34378.836049</v>
+        <v>34378.836048999998</v>
       </c>
       <c r="CD11" s="1">
-        <v>9.549677</v>
+        <v>9.5496770000000009</v>
       </c>
       <c r="CE11" s="1">
-        <v>1989.220000</v>
+        <v>1989.22</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1600.390000</v>
+        <v>-1600.39</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>34207.100617</v>
+        <v>34207.100616999996</v>
       </c>
       <c r="B12" s="1">
-        <v>9.501972</v>
+        <v>9.5019720000000003</v>
       </c>
       <c r="C12" s="1">
-        <v>906.947000</v>
+        <v>906.947</v>
       </c>
       <c r="D12" s="1">
-        <v>-197.470000</v>
+        <v>-197.47</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>34217.544381</v>
       </c>
       <c r="G12" s="1">
-        <v>9.504873</v>
+        <v>9.5048729999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>924.355000</v>
+        <v>924.35500000000002</v>
       </c>
       <c r="I12" s="1">
-        <v>-166.808000</v>
+        <v>-166.80799999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>34228.411265</v>
+        <v>34228.411265000002</v>
       </c>
       <c r="L12" s="1">
         <v>9.507892</v>
       </c>
       <c r="M12" s="1">
-        <v>946.453000</v>
+        <v>946.45299999999997</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.728000</v>
+        <v>-119.72799999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>34238.857471</v>
+        <v>34238.857471000003</v>
       </c>
       <c r="Q12" s="1">
-        <v>9.510794</v>
+        <v>9.5107940000000006</v>
       </c>
       <c r="R12" s="1">
-        <v>953.071000</v>
+        <v>953.07100000000003</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.391000</v>
+        <v>-104.39100000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>34249.398451</v>
+        <v>34249.398451000001</v>
       </c>
       <c r="V12" s="1">
-        <v>9.513722</v>
+        <v>9.5137219999999996</v>
       </c>
       <c r="W12" s="1">
-        <v>959.509000</v>
+        <v>959.50900000000001</v>
       </c>
       <c r="X12" s="1">
-        <v>-90.495200</v>
+        <v>-90.495199999999997</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>34259.873491</v>
+        <v>34259.873490999998</v>
       </c>
       <c r="AA12" s="1">
-        <v>9.516632</v>
+        <v>9.5166319999999995</v>
       </c>
       <c r="AB12" s="1">
-        <v>966.822000</v>
+        <v>966.822</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.833300</v>
+        <v>-80.833299999999994</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>34270.069255</v>
+        <v>34270.069255000002</v>
       </c>
       <c r="AF12" s="1">
-        <v>9.519464</v>
+        <v>9.5194639999999993</v>
       </c>
       <c r="AG12" s="1">
-        <v>971.748000</v>
+        <v>971.74800000000005</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.327200</v>
+        <v>-80.327200000000005</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>34280.500126</v>
+        <v>34280.500125999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>9.522361</v>
+        <v>9.5223610000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>979.705000</v>
+        <v>979.70500000000004</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.964100</v>
+        <v>-87.964100000000002</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>34291.781130</v>
+        <v>34291.781130000003</v>
       </c>
       <c r="AP12" s="1">
-        <v>9.525495</v>
+        <v>9.5254949999999994</v>
       </c>
       <c r="AQ12" s="1">
-        <v>988.915000</v>
+        <v>988.91499999999996</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.879000</v>
+        <v>-102.879</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>34302.501628</v>
+        <v>34302.501627999998</v>
       </c>
       <c r="AU12" s="1">
         <v>9.528473</v>
       </c>
       <c r="AV12" s="1">
-        <v>1000.290000</v>
+        <v>1000.29</v>
       </c>
       <c r="AW12" s="1">
-        <v>-124.425000</v>
+        <v>-124.425</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>34313.629869</v>
+        <v>34313.629868999997</v>
       </c>
       <c r="AZ12" s="1">
-        <v>9.531564</v>
+        <v>9.5315639999999995</v>
       </c>
       <c r="BA12" s="1">
-        <v>1009.870000</v>
+        <v>1009.87</v>
       </c>
       <c r="BB12" s="1">
-        <v>-143.166000</v>
+        <v>-143.166</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>34324.226435</v>
+        <v>34324.226434999997</v>
       </c>
       <c r="BE12" s="1">
-        <v>9.534507</v>
+        <v>9.5345069999999996</v>
       </c>
       <c r="BF12" s="1">
-        <v>1055.030000</v>
+        <v>1055.03</v>
       </c>
       <c r="BG12" s="1">
-        <v>-228.280000</v>
+        <v>-228.28</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>34335.423227</v>
+        <v>34335.423226999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>9.537618</v>
+        <v>9.5376180000000002</v>
       </c>
       <c r="BK12" s="1">
-        <v>1134.120000</v>
+        <v>1134.1199999999999</v>
       </c>
       <c r="BL12" s="1">
-        <v>-365.266000</v>
+        <v>-365.26600000000002</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>34346.019618</v>
+        <v>34346.019617999998</v>
       </c>
       <c r="BO12" s="1">
-        <v>9.540561</v>
+        <v>9.5405610000000003</v>
       </c>
       <c r="BP12" s="1">
-        <v>1265.290000</v>
+        <v>1265.29</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-577.791000</v>
+        <v>-577.79100000000005</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>34356.272452</v>
+        <v>34356.272451999997</v>
       </c>
       <c r="BT12" s="1">
-        <v>9.543409</v>
+        <v>9.5434090000000005</v>
       </c>
       <c r="BU12" s="1">
-        <v>1412.810000</v>
+        <v>1412.81</v>
       </c>
       <c r="BV12" s="1">
-        <v>-805.821000</v>
+        <v>-805.82100000000003</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>34367.053781</v>
+        <v>34367.053781000002</v>
       </c>
       <c r="BY12" s="1">
-        <v>9.546404</v>
+        <v>9.5464040000000008</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1576.080000</v>
+        <v>1576.08</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1043.360000</v>
+        <v>-1043.3599999999999</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>34379.351767</v>
       </c>
       <c r="CD12" s="1">
-        <v>9.549820</v>
+        <v>9.5498200000000004</v>
       </c>
       <c r="CE12" s="1">
-        <v>1990.070000</v>
+        <v>1990.07</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1599.070000</v>
+        <v>-1599.07</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>34207.524730</v>
+        <v>34207.524729999997</v>
       </c>
       <c r="B13" s="1">
-        <v>9.502090</v>
+        <v>9.5020900000000008</v>
       </c>
       <c r="C13" s="1">
-        <v>906.794000</v>
+        <v>906.79399999999998</v>
       </c>
       <c r="D13" s="1">
-        <v>-197.370000</v>
+        <v>-197.37</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>34218.254156</v>
+        <v>34218.254156000003</v>
       </c>
       <c r="G13" s="1">
-        <v>9.505071</v>
+        <v>9.5050709999999992</v>
       </c>
       <c r="H13" s="1">
-        <v>924.024000</v>
+        <v>924.024</v>
       </c>
       <c r="I13" s="1">
-        <v>-167.651000</v>
+        <v>-167.65100000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>34228.690013</v>
+        <v>34228.690012999999</v>
       </c>
       <c r="L13" s="1">
-        <v>9.507969</v>
+        <v>9.5079689999999992</v>
       </c>
       <c r="M13" s="1">
-        <v>946.396000</v>
+        <v>946.39599999999996</v>
       </c>
       <c r="N13" s="1">
-        <v>-120.090000</v>
+        <v>-120.09</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>34239.206159</v>
+        <v>34239.206159000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>9.510891</v>
+        <v>9.5108910000000009</v>
       </c>
       <c r="R13" s="1">
-        <v>953.015000</v>
+        <v>953.01499999999999</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.348000</v>
+        <v>-104.348</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>34249.740689</v>
+        <v>34249.740688999998</v>
       </c>
       <c r="V13" s="1">
-        <v>9.513817</v>
+        <v>9.5138169999999995</v>
       </c>
       <c r="W13" s="1">
-        <v>959.468000</v>
+        <v>959.46799999999996</v>
       </c>
       <c r="X13" s="1">
-        <v>-90.483000</v>
+        <v>-90.483000000000004</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>34260.221656</v>
+        <v>34260.221656000002</v>
       </c>
       <c r="AA13" s="1">
-        <v>9.516728</v>
+        <v>9.5167280000000005</v>
       </c>
       <c r="AB13" s="1">
-        <v>966.775000</v>
+        <v>966.77499999999998</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.840700</v>
+        <v>-80.840699999999998</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>34270.756710</v>
+        <v>34270.756710000001</v>
       </c>
       <c r="AF13" s="1">
-        <v>9.519655</v>
+        <v>9.5196550000000002</v>
       </c>
       <c r="AG13" s="1">
-        <v>971.801000</v>
+        <v>971.80100000000004</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.289200</v>
+        <v>-80.289199999999994</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>34281.195481</v>
+        <v>34281.195481000002</v>
       </c>
       <c r="AK13" s="1">
-        <v>9.522554</v>
+        <v>9.5225539999999995</v>
       </c>
       <c r="AL13" s="1">
-        <v>979.716000</v>
+        <v>979.71600000000001</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.939600</v>
+        <v>-87.939599999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>34292.162057</v>
+        <v>34292.162057000001</v>
       </c>
       <c r="AP13" s="1">
         <v>9.525601</v>
       </c>
       <c r="AQ13" s="1">
-        <v>988.920000</v>
+        <v>988.92</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.875000</v>
+        <v>-102.875</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>34302.865692</v>
+        <v>34302.865691999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>9.528574</v>
+        <v>9.5285740000000008</v>
       </c>
       <c r="AV13" s="1">
-        <v>1000.290000</v>
+        <v>1000.29</v>
       </c>
       <c r="AW13" s="1">
-        <v>-124.408000</v>
+        <v>-124.408</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>34313.987484</v>
+        <v>34313.987483999997</v>
       </c>
       <c r="AZ13" s="1">
         <v>9.531663</v>
       </c>
       <c r="BA13" s="1">
-        <v>1009.910000</v>
+        <v>1009.91</v>
       </c>
       <c r="BB13" s="1">
-        <v>-143.201000</v>
+        <v>-143.20099999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>34324.897518</v>
+        <v>34324.897517999998</v>
       </c>
       <c r="BE13" s="1">
         <v>9.534694</v>
       </c>
       <c r="BF13" s="1">
-        <v>1055.020000</v>
+        <v>1055.02</v>
       </c>
       <c r="BG13" s="1">
-        <v>-228.251000</v>
+        <v>-228.251</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>34335.909169</v>
+        <v>34335.909168999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>9.537753</v>
+        <v>9.5377530000000004</v>
       </c>
       <c r="BK13" s="1">
-        <v>1134.100000</v>
+        <v>1134.0999999999999</v>
       </c>
       <c r="BL13" s="1">
-        <v>-365.289000</v>
+        <v>-365.28899999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>34346.138163</v>
+        <v>34346.138163000003</v>
       </c>
       <c r="BO13" s="1">
-        <v>9.540594</v>
+        <v>9.5405940000000005</v>
       </c>
       <c r="BP13" s="1">
-        <v>1265.260000</v>
+        <v>1265.26</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-577.823000</v>
+        <v>-577.82299999999998</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>34356.687572</v>
+        <v>34356.687572000003</v>
       </c>
       <c r="BT13" s="1">
-        <v>9.543524</v>
+        <v>9.5435239999999997</v>
       </c>
       <c r="BU13" s="1">
-        <v>1412.740000</v>
+        <v>1412.74</v>
       </c>
       <c r="BV13" s="1">
-        <v>-805.638000</v>
+        <v>-805.63800000000003</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>34367.476583</v>
+        <v>34367.476583000003</v>
       </c>
       <c r="BY13" s="1">
-        <v>9.546521</v>
+        <v>9.5465210000000003</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1576.010000</v>
+        <v>1576.01</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1043.390000</v>
+        <v>-1043.3900000000001</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>34379.875573</v>
+        <v>34379.875572999998</v>
       </c>
       <c r="CD13" s="1">
-        <v>9.549965</v>
+        <v>9.5499650000000003</v>
       </c>
       <c r="CE13" s="1">
-        <v>1987.990000</v>
+        <v>1987.99</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1599.160000</v>
+        <v>-1599.16</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>34207.790553</v>
+        <v>34207.790552999999</v>
       </c>
       <c r="B14" s="1">
-        <v>9.502164</v>
+        <v>9.5021640000000005</v>
       </c>
       <c r="C14" s="1">
-        <v>907.015000</v>
+        <v>907.01499999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>-197.218000</v>
+        <v>-197.21799999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>34218.580554</v>
       </c>
       <c r="G14" s="1">
-        <v>9.505161</v>
+        <v>9.5051609999999993</v>
       </c>
       <c r="H14" s="1">
-        <v>924.042000</v>
+        <v>924.04200000000003</v>
       </c>
       <c r="I14" s="1">
-        <v>-167.509000</v>
+        <v>-167.50899999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>34229.035692</v>
+        <v>34229.035691999998</v>
       </c>
       <c r="L14" s="1">
-        <v>9.508065</v>
+        <v>9.5080650000000002</v>
       </c>
       <c r="M14" s="1">
-        <v>946.449000</v>
+        <v>946.44899999999996</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.697000</v>
+        <v>-119.697</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>34239.553854</v>
+        <v>34239.553853999998</v>
       </c>
       <c r="Q14" s="1">
-        <v>9.510987</v>
+        <v>9.5109870000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>953.067000</v>
+        <v>953.06700000000001</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.307000</v>
+        <v>-104.307</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>34250.085410</v>
+        <v>34250.08541</v>
       </c>
       <c r="V14" s="1">
-        <v>9.513913</v>
+        <v>9.5139130000000005</v>
       </c>
       <c r="W14" s="1">
-        <v>959.484000</v>
+        <v>959.48400000000004</v>
       </c>
       <c r="X14" s="1">
-        <v>-90.486200</v>
+        <v>-90.486199999999997</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>34260.920053</v>
+        <v>34260.920053000002</v>
       </c>
       <c r="AA14" s="1">
-        <v>9.516922</v>
+        <v>9.5169219999999992</v>
       </c>
       <c r="AB14" s="1">
-        <v>966.847000</v>
+        <v>966.84699999999998</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.896500</v>
+        <v>-80.896500000000003</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>34271.101397</v>
+        <v>34271.101396999999</v>
       </c>
       <c r="AF14" s="1">
-        <v>9.519750</v>
+        <v>9.5197500000000002</v>
       </c>
       <c r="AG14" s="1">
-        <v>971.762000</v>
+        <v>971.76199999999994</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.288700</v>
+        <v>-80.288700000000006</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>34281.545688</v>
+        <v>34281.545687999998</v>
       </c>
       <c r="AK14" s="1">
-        <v>9.522652</v>
+        <v>9.5226520000000008</v>
       </c>
       <c r="AL14" s="1">
-        <v>979.730000</v>
+        <v>979.73</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.969400</v>
+        <v>-87.969399999999993</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>34292.520138</v>
       </c>
       <c r="AP14" s="1">
-        <v>9.525700</v>
+        <v>9.5257000000000005</v>
       </c>
       <c r="AQ14" s="1">
-        <v>988.902000</v>
+        <v>988.90200000000004</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.861000</v>
+        <v>-102.861</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>34303.533802</v>
+        <v>34303.533801999998</v>
       </c>
       <c r="AU14" s="1">
-        <v>9.528759</v>
+        <v>9.5287590000000009</v>
       </c>
       <c r="AV14" s="1">
-        <v>1000.290000</v>
+        <v>1000.29</v>
       </c>
       <c r="AW14" s="1">
-        <v>-124.417000</v>
+        <v>-124.417</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>34314.656091</v>
+        <v>34314.656090999997</v>
       </c>
       <c r="AZ14" s="1">
-        <v>9.531849</v>
+        <v>9.5318489999999994</v>
       </c>
       <c r="BA14" s="1">
-        <v>1009.930000</v>
+        <v>1009.93</v>
       </c>
       <c r="BB14" s="1">
-        <v>-143.213000</v>
+        <v>-143.21299999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>34325.340758</v>
+        <v>34325.340757999998</v>
       </c>
       <c r="BE14" s="1">
-        <v>9.534817</v>
+        <v>9.5348170000000003</v>
       </c>
       <c r="BF14" s="1">
-        <v>1055.010000</v>
+        <v>1055.01</v>
       </c>
       <c r="BG14" s="1">
-        <v>-228.273000</v>
+        <v>-228.273</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>34336.172553</v>
+        <v>34336.172552999997</v>
       </c>
       <c r="BJ14" s="1">
-        <v>9.537826</v>
+        <v>9.5378260000000008</v>
       </c>
       <c r="BK14" s="1">
-        <v>1134.090000</v>
+        <v>1134.0899999999999</v>
       </c>
       <c r="BL14" s="1">
-        <v>-365.277000</v>
+        <v>-365.27699999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>34346.562768</v>
+        <v>34346.562768000003</v>
       </c>
       <c r="BO14" s="1">
-        <v>9.540712</v>
+        <v>9.5407119999999992</v>
       </c>
       <c r="BP14" s="1">
-        <v>1265.260000</v>
+        <v>1265.26</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-577.834000</v>
+        <v>-577.83399999999995</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>34357.111155</v>
+        <v>34357.111154999999</v>
       </c>
       <c r="BT14" s="1">
-        <v>9.543642</v>
+        <v>9.5436420000000002</v>
       </c>
       <c r="BU14" s="1">
-        <v>1412.870000</v>
+        <v>1412.87</v>
       </c>
       <c r="BV14" s="1">
-        <v>-805.489000</v>
+        <v>-805.48900000000003</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>34367.926421</v>
+        <v>34367.926420999996</v>
       </c>
       <c r="BY14" s="1">
-        <v>9.546646</v>
+        <v>9.5466460000000009</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1576.170000</v>
+        <v>1576.17</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1043.350000</v>
+        <v>-1043.3499999999999</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>34380.409764</v>
+        <v>34380.409764000004</v>
       </c>
       <c r="CD14" s="1">
-        <v>9.550114</v>
+        <v>9.5501140000000007</v>
       </c>
       <c r="CE14" s="1">
-        <v>1989.630000</v>
+        <v>1989.63</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1599.590000</v>
+        <v>-1599.59</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>34208.130846</v>
       </c>
       <c r="B15" s="1">
-        <v>9.502259</v>
+        <v>9.5022590000000005</v>
       </c>
       <c r="C15" s="1">
-        <v>906.891000</v>
+        <v>906.89099999999996</v>
       </c>
       <c r="D15" s="1">
-        <v>-197.140000</v>
+        <v>-197.14</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>34218.922267</v>
+        <v>34218.922267000002</v>
       </c>
       <c r="G15" s="1">
-        <v>9.505256</v>
+        <v>9.5052559999999993</v>
       </c>
       <c r="H15" s="1">
-        <v>924.553000</v>
+        <v>924.553</v>
       </c>
       <c r="I15" s="1">
-        <v>-167.104000</v>
+        <v>-167.10400000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>34229.381404</v>
       </c>
       <c r="L15" s="1">
-        <v>9.508162</v>
+        <v>9.5081620000000004</v>
       </c>
       <c r="M15" s="1">
-        <v>946.580000</v>
+        <v>946.58</v>
       </c>
       <c r="N15" s="1">
-        <v>-119.786000</v>
+        <v>-119.786</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>34240.251766</v>
+        <v>34240.251766000001</v>
       </c>
       <c r="Q15" s="1">
-        <v>9.511181</v>
+        <v>9.5111810000000006</v>
       </c>
       <c r="R15" s="1">
-        <v>953.058000</v>
+        <v>953.05799999999999</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.314000</v>
+        <v>-104.31399999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>34250.770880</v>
+        <v>34250.770879999996</v>
       </c>
       <c r="V15" s="1">
-        <v>9.514103</v>
+        <v>9.5141030000000004</v>
       </c>
       <c r="W15" s="1">
-        <v>959.462000</v>
+        <v>959.46199999999999</v>
       </c>
       <c r="X15" s="1">
-        <v>-90.470400</v>
+        <v>-90.470399999999998</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>34261.267715</v>
+        <v>34261.267715000002</v>
       </c>
       <c r="AA15" s="1">
-        <v>9.517019</v>
+        <v>9.5170189999999995</v>
       </c>
       <c r="AB15" s="1">
-        <v>966.796000</v>
+        <v>966.79600000000005</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.732400</v>
+        <v>-80.732399999999998</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>34271.446118</v>
       </c>
       <c r="AF15" s="1">
-        <v>9.519846</v>
+        <v>9.5198459999999994</v>
       </c>
       <c r="AG15" s="1">
-        <v>971.765000</v>
+        <v>971.76499999999999</v>
       </c>
       <c r="AH15" s="1">
-        <v>-80.321000</v>
+        <v>-80.320999999999998</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>34281.894343</v>
@@ -3927,602 +4343,602 @@
         <v>9.522748</v>
       </c>
       <c r="AL15" s="1">
-        <v>979.714000</v>
+        <v>979.71400000000006</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.960200</v>
+        <v>-87.9602</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>34293.186761</v>
+        <v>34293.186760999997</v>
       </c>
       <c r="AP15" s="1">
-        <v>9.525885</v>
+        <v>9.5258850000000006</v>
       </c>
       <c r="AQ15" s="1">
-        <v>988.932000</v>
+        <v>988.93200000000002</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.882000</v>
+        <v>-102.88200000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>34303.991636</v>
+        <v>34303.991635999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>9.528887</v>
+        <v>9.5288869999999992</v>
       </c>
       <c r="AV15" s="1">
-        <v>1000.310000</v>
+        <v>1000.31</v>
       </c>
       <c r="AW15" s="1">
-        <v>-124.429000</v>
+        <v>-124.429</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>34315.096572</v>
+        <v>34315.096572000002</v>
       </c>
       <c r="AZ15" s="1">
-        <v>9.531971</v>
+        <v>9.5319710000000004</v>
       </c>
       <c r="BA15" s="1">
-        <v>1009.910000</v>
+        <v>1009.91</v>
       </c>
       <c r="BB15" s="1">
-        <v>-143.188000</v>
+        <v>-143.18799999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>34325.699516</v>
+        <v>34325.699516000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>9.534917</v>
+        <v>9.5349170000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1055.000000</v>
+        <v>1055</v>
       </c>
       <c r="BG15" s="1">
-        <v>-228.263000</v>
+        <v>-228.26300000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>34336.554462</v>
       </c>
       <c r="BJ15" s="1">
-        <v>9.537932</v>
+        <v>9.5379319999999996</v>
       </c>
       <c r="BK15" s="1">
-        <v>1134.100000</v>
+        <v>1134.0999999999999</v>
       </c>
       <c r="BL15" s="1">
-        <v>-365.249000</v>
+        <v>-365.24900000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>34346.956595</v>
+        <v>34346.956595000003</v>
       </c>
       <c r="BO15" s="1">
-        <v>9.540821</v>
+        <v>9.5408209999999993</v>
       </c>
       <c r="BP15" s="1">
-        <v>1265.260000</v>
+        <v>1265.26</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-577.843000</v>
+        <v>-577.84299999999996</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>34357.540723</v>
+        <v>34357.540722999998</v>
       </c>
       <c r="BT15" s="1">
-        <v>9.543761</v>
+        <v>9.5437609999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1412.750000</v>
+        <v>1412.75</v>
       </c>
       <c r="BV15" s="1">
-        <v>-805.366000</v>
+        <v>-805.36599999999999</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>34368.357444</v>
+        <v>34368.357444000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>9.546766</v>
+        <v>9.5467659999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1576.110000</v>
+        <v>1576.11</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1043.280000</v>
+        <v>-1043.28</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>34380.952505</v>
+        <v>34380.952505000001</v>
       </c>
       <c r="CD15" s="1">
-        <v>9.550265</v>
+        <v>9.5502649999999996</v>
       </c>
       <c r="CE15" s="1">
-        <v>1988.750000</v>
+        <v>1988.75</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1598.130000</v>
+        <v>-1598.13</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>34208.473545</v>
+        <v>34208.473545000001</v>
       </c>
       <c r="B16" s="1">
-        <v>9.502354</v>
+        <v>9.5023540000000004</v>
       </c>
       <c r="C16" s="1">
-        <v>907.128000</v>
+        <v>907.12800000000004</v>
       </c>
       <c r="D16" s="1">
-        <v>-197.211000</v>
+        <v>-197.21100000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>34219.612697</v>
+        <v>34219.612696999997</v>
       </c>
       <c r="G16" s="1">
-        <v>9.505448</v>
+        <v>9.5054479999999995</v>
       </c>
       <c r="H16" s="1">
-        <v>924.125000</v>
+        <v>924.125</v>
       </c>
       <c r="I16" s="1">
-        <v>-167.368000</v>
+        <v>-167.36799999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>34230.080764</v>
+        <v>34230.080763999998</v>
       </c>
       <c r="L16" s="1">
-        <v>9.508356</v>
+        <v>9.5083559999999991</v>
       </c>
       <c r="M16" s="1">
-        <v>946.562000</v>
+        <v>946.56200000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.879000</v>
+        <v>-119.879</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>34240.601432</v>
+        <v>34240.601432000003</v>
       </c>
       <c r="Q16" s="1">
-        <v>9.511278</v>
+        <v>9.5112780000000008</v>
       </c>
       <c r="R16" s="1">
-        <v>953.094000</v>
+        <v>953.09400000000005</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.337000</v>
+        <v>-104.337</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>34251.104192</v>
+        <v>34251.104191999999</v>
       </c>
       <c r="V16" s="1">
-        <v>9.514196</v>
+        <v>9.5141960000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>959.614000</v>
+        <v>959.61400000000003</v>
       </c>
       <c r="X16" s="1">
-        <v>-90.461400</v>
+        <v>-90.461399999999998</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>34261.615907</v>
+        <v>34261.615906999999</v>
       </c>
       <c r="AA16" s="1">
-        <v>9.517116</v>
+        <v>9.5171159999999997</v>
       </c>
       <c r="AB16" s="1">
-        <v>966.805000</v>
+        <v>966.80499999999995</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.794300</v>
+        <v>-80.794300000000007</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>34272.085990</v>
+        <v>34272.08599</v>
       </c>
       <c r="AF16" s="1">
-        <v>9.520024</v>
+        <v>9.5200239999999994</v>
       </c>
       <c r="AG16" s="1">
-        <v>971.783000</v>
+        <v>971.78300000000002</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.274100</v>
+        <v>-80.274100000000004</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>34282.550054</v>
+        <v>34282.550053999999</v>
       </c>
       <c r="AK16" s="1">
-        <v>9.522931</v>
+        <v>9.5229309999999998</v>
       </c>
       <c r="AL16" s="1">
-        <v>979.685000</v>
+        <v>979.68499999999995</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.947900</v>
+        <v>-87.947900000000004</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>34293.597447</v>
       </c>
       <c r="AP16" s="1">
-        <v>9.525999</v>
+        <v>9.5259990000000005</v>
       </c>
       <c r="AQ16" s="1">
-        <v>988.917000</v>
+        <v>988.91700000000003</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.851000</v>
+        <v>-102.851</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>34304.359420</v>
+        <v>34304.359420000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>9.528989</v>
+        <v>9.5289889999999993</v>
       </c>
       <c r="AV16" s="1">
-        <v>1000.290000</v>
+        <v>1000.29</v>
       </c>
       <c r="AW16" s="1">
-        <v>-124.419000</v>
+        <v>-124.419</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>34315.455675</v>
+        <v>34315.455674999997</v>
       </c>
       <c r="AZ16" s="1">
-        <v>9.532071</v>
+        <v>9.5320710000000002</v>
       </c>
       <c r="BA16" s="1">
-        <v>1009.900000</v>
+        <v>1009.9</v>
       </c>
       <c r="BB16" s="1">
-        <v>-143.187000</v>
+        <v>-143.18700000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>34326.062628</v>
       </c>
       <c r="BE16" s="1">
-        <v>9.535017</v>
+        <v>9.5350169999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1055.020000</v>
+        <v>1055.02</v>
       </c>
       <c r="BG16" s="1">
-        <v>-228.243000</v>
+        <v>-228.24299999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>34336.975071</v>
+        <v>34336.975071000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>9.538049</v>
+        <v>9.5380490000000009</v>
       </c>
       <c r="BK16" s="1">
-        <v>1134.090000</v>
+        <v>1134.0899999999999</v>
       </c>
       <c r="BL16" s="1">
-        <v>-365.257000</v>
+        <v>-365.25700000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>34347.379153</v>
+        <v>34347.379153000002</v>
       </c>
       <c r="BO16" s="1">
-        <v>9.540939</v>
+        <v>9.5409389999999998</v>
       </c>
       <c r="BP16" s="1">
-        <v>1265.270000</v>
+        <v>1265.27</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-577.818000</v>
+        <v>-577.81799999999998</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>34357.942948</v>
+        <v>34357.942948000004</v>
       </c>
       <c r="BT16" s="1">
-        <v>9.543873</v>
+        <v>9.5438729999999996</v>
       </c>
       <c r="BU16" s="1">
-        <v>1412.940000</v>
+        <v>1412.94</v>
       </c>
       <c r="BV16" s="1">
-        <v>-805.272000</v>
+        <v>-805.27200000000005</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>34368.777593</v>
+        <v>34368.777592999999</v>
       </c>
       <c r="BY16" s="1">
-        <v>9.546883</v>
+        <v>9.5468829999999993</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1576.120000</v>
+        <v>1576.12</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1043.310000</v>
+        <v>-1043.31</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>34381.490516</v>
+        <v>34381.490515999998</v>
       </c>
       <c r="CD16" s="1">
         <v>9.550414</v>
       </c>
       <c r="CE16" s="1">
-        <v>1988.330000</v>
+        <v>1988.33</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1600.390000</v>
+        <v>-1600.39</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>34209.158024</v>
+        <v>34209.158023999997</v>
       </c>
       <c r="B17" s="1">
-        <v>9.502544</v>
+        <v>9.5025440000000003</v>
       </c>
       <c r="C17" s="1">
-        <v>906.917000</v>
+        <v>906.91700000000003</v>
       </c>
       <c r="D17" s="1">
-        <v>-197.362000</v>
+        <v>-197.36199999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>34219.956922</v>
+        <v>34219.956921999998</v>
       </c>
       <c r="G17" s="1">
-        <v>9.505544</v>
+        <v>9.5055440000000004</v>
       </c>
       <c r="H17" s="1">
-        <v>924.030000</v>
+        <v>924.03</v>
       </c>
       <c r="I17" s="1">
-        <v>-166.697000</v>
+        <v>-166.697</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>34230.428956</v>
+        <v>34230.428956000003</v>
       </c>
       <c r="L17" s="1">
-        <v>9.508452</v>
+        <v>9.5084520000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>946.551000</v>
+        <v>946.55100000000004</v>
       </c>
       <c r="N17" s="1">
-        <v>-119.787000</v>
+        <v>-119.78700000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>34240.951086</v>
+        <v>34240.951086000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>9.511375</v>
+        <v>9.5113749999999992</v>
       </c>
       <c r="R17" s="1">
-        <v>953.070000</v>
+        <v>953.07</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.377000</v>
+        <v>-104.377</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>34251.762878</v>
+        <v>34251.762878000001</v>
       </c>
       <c r="V17" s="1">
-        <v>9.514379</v>
+        <v>9.5143789999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>959.599000</v>
+        <v>959.59900000000005</v>
       </c>
       <c r="X17" s="1">
-        <v>-90.497400</v>
+        <v>-90.497399999999999</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>34262.267683</v>
+        <v>34262.267682999998</v>
       </c>
       <c r="AA17" s="1">
-        <v>9.517297</v>
+        <v>9.5172969999999992</v>
       </c>
       <c r="AB17" s="1">
-        <v>966.809000</v>
+        <v>966.80899999999997</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.852800</v>
+        <v>-80.852800000000002</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>34272.476835</v>
+        <v>34272.476835000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>9.520132</v>
+        <v>9.5201320000000003</v>
       </c>
       <c r="AG17" s="1">
-        <v>971.766000</v>
+        <v>971.76599999999996</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.250300</v>
+        <v>-80.250299999999996</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>34282.940933</v>
+        <v>34282.940932999998</v>
       </c>
       <c r="AK17" s="1">
-        <v>9.523039</v>
+        <v>9.5230390000000007</v>
       </c>
       <c r="AL17" s="1">
-        <v>979.711000</v>
+        <v>979.71100000000001</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.952200</v>
+        <v>-87.952200000000005</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>34293.984358</v>
+        <v>34293.984358000002</v>
       </c>
       <c r="AP17" s="1">
-        <v>9.526107</v>
+        <v>9.5261069999999997</v>
       </c>
       <c r="AQ17" s="1">
-        <v>988.900000</v>
+        <v>988.9</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.871000</v>
+        <v>-102.871</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>34304.723740</v>
+        <v>34304.723740000001</v>
       </c>
       <c r="AU17" s="1">
-        <v>9.529090</v>
+        <v>9.5290900000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1000.280000</v>
+        <v>1000.28</v>
       </c>
       <c r="AW17" s="1">
-        <v>-124.397000</v>
+        <v>-124.39700000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>34315.812267</v>
+        <v>34315.812267000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>9.532170</v>
+        <v>9.5321700000000007</v>
       </c>
       <c r="BA17" s="1">
-        <v>1009.890000</v>
+        <v>1009.89</v>
       </c>
       <c r="BB17" s="1">
-        <v>-143.179000</v>
+        <v>-143.179</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>34326.484684</v>
+        <v>34326.484684000003</v>
       </c>
       <c r="BE17" s="1">
-        <v>9.535135</v>
+        <v>9.5351350000000004</v>
       </c>
       <c r="BF17" s="1">
-        <v>1055.010000</v>
+        <v>1055.01</v>
       </c>
       <c r="BG17" s="1">
-        <v>-228.261000</v>
+        <v>-228.261</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>34337.317805</v>
+        <v>34337.317804999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>9.538144</v>
+        <v>9.5381440000000008</v>
       </c>
       <c r="BK17" s="1">
-        <v>1134.080000</v>
+        <v>1134.08</v>
       </c>
       <c r="BL17" s="1">
-        <v>-365.288000</v>
+        <v>-365.28800000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>34347.774501</v>
@@ -4531,2296 +4947,2296 @@
         <v>9.541048</v>
       </c>
       <c r="BP17" s="1">
-        <v>1265.270000</v>
+        <v>1265.27</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-577.833000</v>
+        <v>-577.83299999999997</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>34358.360083</v>
       </c>
       <c r="BT17" s="1">
-        <v>9.543989</v>
+        <v>9.5439889999999998</v>
       </c>
       <c r="BU17" s="1">
-        <v>1412.950000</v>
+        <v>1412.95</v>
       </c>
       <c r="BV17" s="1">
-        <v>-805.239000</v>
+        <v>-805.23900000000003</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>34369.200678</v>
+        <v>34369.200678000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>9.547000</v>
+        <v>9.5470000000000006</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1576.060000</v>
+        <v>1576.06</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1043.270000</v>
+        <v>-1043.27</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>34382.030164</v>
+        <v>34382.030164000003</v>
       </c>
       <c r="CD17" s="1">
-        <v>9.550564</v>
+        <v>9.5505639999999996</v>
       </c>
       <c r="CE17" s="1">
-        <v>1989.770000</v>
+        <v>1989.77</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1598.590000</v>
+        <v>-1598.59</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>34209.501073</v>
+        <v>34209.501072999999</v>
       </c>
       <c r="B18" s="1">
-        <v>9.502639</v>
+        <v>9.5026390000000003</v>
       </c>
       <c r="C18" s="1">
-        <v>906.896000</v>
+        <v>906.89599999999996</v>
       </c>
       <c r="D18" s="1">
-        <v>-197.211000</v>
+        <v>-197.21100000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>34220.301146</v>
+        <v>34220.301145999998</v>
       </c>
       <c r="G18" s="1">
-        <v>9.505639</v>
+        <v>9.5056390000000004</v>
       </c>
       <c r="H18" s="1">
-        <v>924.491000</v>
+        <v>924.49099999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>-167.528000</v>
+        <v>-167.52799999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>34230.773675</v>
+        <v>34230.773674999997</v>
       </c>
       <c r="L18" s="1">
-        <v>9.508548</v>
+        <v>9.5085479999999993</v>
       </c>
       <c r="M18" s="1">
-        <v>946.520000</v>
+        <v>946.52</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.810000</v>
+        <v>-119.81</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>34241.614906</v>
+        <v>34241.614906000003</v>
       </c>
       <c r="Q18" s="1">
-        <v>9.511560</v>
+        <v>9.5115599999999993</v>
       </c>
       <c r="R18" s="1">
-        <v>953.029000</v>
+        <v>953.029</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.373000</v>
+        <v>-104.373</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>34252.145790</v>
+        <v>34252.145790000002</v>
       </c>
       <c r="V18" s="1">
-        <v>9.514485</v>
+        <v>9.5144850000000005</v>
       </c>
       <c r="W18" s="1">
-        <v>959.539000</v>
+        <v>959.53899999999999</v>
       </c>
       <c r="X18" s="1">
-        <v>-90.447700</v>
+        <v>-90.447699999999998</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>34262.660976</v>
+        <v>34262.660975999999</v>
       </c>
       <c r="AA18" s="1">
-        <v>9.517406</v>
+        <v>9.5174059999999994</v>
       </c>
       <c r="AB18" s="1">
-        <v>966.835000</v>
+        <v>966.83500000000004</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.778800</v>
+        <v>-80.778800000000004</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>34272.819074</v>
+        <v>34272.819073999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>9.520228</v>
+        <v>9.5202279999999995</v>
       </c>
       <c r="AG18" s="1">
-        <v>971.762000</v>
+        <v>971.76199999999994</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.264300</v>
+        <v>-80.264300000000006</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>34283.288598</v>
+        <v>34283.288597999999</v>
       </c>
       <c r="AK18" s="1">
-        <v>9.523136</v>
+        <v>9.5231359999999992</v>
       </c>
       <c r="AL18" s="1">
-        <v>979.691000</v>
+        <v>979.69100000000003</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.983900</v>
+        <v>-87.983900000000006</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>34294.346406</v>
+        <v>34294.346405999997</v>
       </c>
       <c r="AP18" s="1">
-        <v>9.526207</v>
+        <v>9.5262069999999994</v>
       </c>
       <c r="AQ18" s="1">
-        <v>988.901000</v>
+        <v>988.90099999999995</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.868000</v>
+        <v>-102.86799999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>34305.141337</v>
+        <v>34305.141337000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>9.529206</v>
+        <v>9.5292060000000003</v>
       </c>
       <c r="AV18" s="1">
-        <v>1000.310000</v>
+        <v>1000.31</v>
       </c>
       <c r="AW18" s="1">
-        <v>-124.411000</v>
+        <v>-124.411</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>34316.230902</v>
+        <v>34316.230902000003</v>
       </c>
       <c r="AZ18" s="1">
-        <v>9.532286</v>
+        <v>9.5322859999999991</v>
       </c>
       <c r="BA18" s="1">
-        <v>1009.910000</v>
+        <v>1009.91</v>
       </c>
       <c r="BB18" s="1">
-        <v>-143.177000</v>
+        <v>-143.17699999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>34326.782811</v>
+        <v>34326.782810999997</v>
       </c>
       <c r="BE18" s="1">
-        <v>9.535217</v>
+        <v>9.5352169999999994</v>
       </c>
       <c r="BF18" s="1">
-        <v>1055.010000</v>
+        <v>1055.01</v>
       </c>
       <c r="BG18" s="1">
-        <v>-228.269000</v>
+        <v>-228.26900000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>34337.694765</v>
       </c>
       <c r="BJ18" s="1">
-        <v>9.538249</v>
+        <v>9.5382490000000004</v>
       </c>
       <c r="BK18" s="1">
-        <v>1134.100000</v>
+        <v>1134.0999999999999</v>
       </c>
       <c r="BL18" s="1">
-        <v>-365.253000</v>
+        <v>-365.25299999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>34348.196096</v>
       </c>
       <c r="BO18" s="1">
-        <v>9.541166</v>
+        <v>9.5411660000000005</v>
       </c>
       <c r="BP18" s="1">
-        <v>1265.290000</v>
+        <v>1265.29</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-577.827000</v>
+        <v>-577.827</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>34358.774772</v>
+        <v>34358.774771999997</v>
       </c>
       <c r="BT18" s="1">
-        <v>9.544104</v>
+        <v>9.5441040000000008</v>
       </c>
       <c r="BU18" s="1">
-        <v>1413.030000</v>
+        <v>1413.03</v>
       </c>
       <c r="BV18" s="1">
-        <v>-805.201000</v>
+        <v>-805.20100000000002</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>34369.626744</v>
+        <v>34369.626744000001</v>
       </c>
       <c r="BY18" s="1">
-        <v>9.547119</v>
+        <v>9.5471190000000004</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1576.180000</v>
+        <v>1576.18</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1043.330000</v>
+        <v>-1043.33</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>34382.569848</v>
+        <v>34382.569847999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>9.550714</v>
+        <v>9.5507139999999993</v>
       </c>
       <c r="CE18" s="1">
-        <v>1987.950000</v>
+        <v>1987.95</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1598.860000</v>
+        <v>-1598.86</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>34209.841014</v>
+        <v>34209.841013999998</v>
       </c>
       <c r="B19" s="1">
-        <v>9.502734</v>
+        <v>9.5027340000000002</v>
       </c>
       <c r="C19" s="1">
-        <v>906.933000</v>
+        <v>906.93299999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-197.201000</v>
+        <v>-197.20099999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>34220.958377</v>
+        <v>34220.958377000003</v>
       </c>
       <c r="G19" s="1">
-        <v>9.505822</v>
+        <v>9.5058220000000002</v>
       </c>
       <c r="H19" s="1">
-        <v>924.213000</v>
+        <v>924.21299999999997</v>
       </c>
       <c r="I19" s="1">
-        <v>-167.239000</v>
+        <v>-167.239</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>34231.445257</v>
+        <v>34231.445256999999</v>
       </c>
       <c r="L19" s="1">
-        <v>9.508735</v>
+        <v>9.5087349999999997</v>
       </c>
       <c r="M19" s="1">
-        <v>946.495000</v>
+        <v>946.495</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.914000</v>
+        <v>-119.914</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>34241.998197</v>
+        <v>34241.998197000001</v>
       </c>
       <c r="Q19" s="1">
         <v>9.511666</v>
       </c>
       <c r="R19" s="1">
-        <v>953.032000</v>
+        <v>953.03200000000004</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.334000</v>
+        <v>-104.334</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>34252.488525</v>
+        <v>34252.488525000001</v>
       </c>
       <c r="V19" s="1">
-        <v>9.514580</v>
+        <v>9.5145800000000005</v>
       </c>
       <c r="W19" s="1">
-        <v>959.498000</v>
+        <v>959.49800000000005</v>
       </c>
       <c r="X19" s="1">
-        <v>-90.418000</v>
+        <v>-90.418000000000006</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>34263.009167</v>
+        <v>34263.009166999997</v>
       </c>
       <c r="AA19" s="1">
-        <v>9.517503</v>
+        <v>9.5175029999999996</v>
       </c>
       <c r="AB19" s="1">
-        <v>966.746000</v>
+        <v>966.74599999999998</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.740500</v>
+        <v>-80.740499999999997</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>34273.170706</v>
+        <v>34273.170705999997</v>
       </c>
       <c r="AF19" s="1">
-        <v>9.520325</v>
+        <v>9.5203249999999997</v>
       </c>
       <c r="AG19" s="1">
-        <v>971.734000</v>
+        <v>971.73400000000004</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.279500</v>
+        <v>-80.279499999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>34283.640261</v>
       </c>
       <c r="AK19" s="1">
-        <v>9.523233</v>
+        <v>9.5232329999999994</v>
       </c>
       <c r="AL19" s="1">
-        <v>979.693000</v>
+        <v>979.69299999999998</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.941000</v>
+        <v>-87.941000000000003</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>34294.759110</v>
+        <v>34294.759109999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>9.526322</v>
+        <v>9.5263220000000004</v>
       </c>
       <c r="AQ19" s="1">
-        <v>988.926000</v>
+        <v>988.92600000000004</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.879000</v>
+        <v>-102.879</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>34305.454807</v>
+        <v>34305.454807000002</v>
       </c>
       <c r="AU19" s="1">
-        <v>9.529293</v>
+        <v>9.5292929999999991</v>
       </c>
       <c r="AV19" s="1">
-        <v>1000.310000</v>
+        <v>1000.31</v>
       </c>
       <c r="AW19" s="1">
-        <v>-124.425000</v>
+        <v>-124.425</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>34316.531001</v>
+        <v>34316.531001000003</v>
       </c>
       <c r="AZ19" s="1">
-        <v>9.532370</v>
+        <v>9.5323700000000002</v>
       </c>
       <c r="BA19" s="1">
-        <v>1009.930000</v>
+        <v>1009.93</v>
       </c>
       <c r="BB19" s="1">
-        <v>-143.171000</v>
+        <v>-143.17099999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>34327.144363</v>
+        <v>34327.144362999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>9.535318</v>
+        <v>9.5353180000000002</v>
       </c>
       <c r="BF19" s="1">
-        <v>1055.020000</v>
+        <v>1055.02</v>
       </c>
       <c r="BG19" s="1">
-        <v>-228.251000</v>
+        <v>-228.251</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>34338.070268</v>
+        <v>34338.070268000003</v>
       </c>
       <c r="BJ19" s="1">
-        <v>9.538353</v>
+        <v>9.5383530000000007</v>
       </c>
       <c r="BK19" s="1">
-        <v>1134.070000</v>
+        <v>1134.07</v>
       </c>
       <c r="BL19" s="1">
-        <v>-365.245000</v>
+        <v>-365.245</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>34348.594350</v>
+        <v>34348.594349999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>9.541276</v>
+        <v>9.5412759999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1265.250000</v>
+        <v>1265.25</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-577.849000</v>
+        <v>-577.84900000000005</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>34359.191904</v>
+        <v>34359.191903999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>9.544220</v>
+        <v>9.5442199999999993</v>
       </c>
       <c r="BU19" s="1">
-        <v>1413.230000</v>
+        <v>1413.23</v>
       </c>
       <c r="BV19" s="1">
-        <v>-805.178000</v>
+        <v>-805.178</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>34370.475857</v>
+        <v>34370.475856999998</v>
       </c>
       <c r="BY19" s="1">
-        <v>9.547354</v>
+        <v>9.5473540000000003</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1576.150000</v>
+        <v>1576.15</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1043.290000</v>
+        <v>-1043.29</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>34383.110946</v>
+        <v>34383.110946000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>9.550864</v>
+        <v>9.5508640000000007</v>
       </c>
       <c r="CE19" s="1">
-        <v>1989.130000</v>
+        <v>1989.13</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1600.170000</v>
+        <v>-1600.17</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>34210.489813</v>
       </c>
       <c r="B20" s="1">
-        <v>9.502914</v>
+        <v>9.5029140000000005</v>
       </c>
       <c r="C20" s="1">
-        <v>907.068000</v>
+        <v>907.06799999999998</v>
       </c>
       <c r="D20" s="1">
-        <v>-197.155000</v>
+        <v>-197.155</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>34221.333849</v>
+        <v>34221.333849000002</v>
       </c>
       <c r="G20" s="1">
-        <v>9.505926</v>
+        <v>9.5059260000000005</v>
       </c>
       <c r="H20" s="1">
-        <v>923.944000</v>
+        <v>923.94399999999996</v>
       </c>
       <c r="I20" s="1">
-        <v>-167.709000</v>
+        <v>-167.709</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>34231.809322</v>
+        <v>34231.809322000001</v>
       </c>
       <c r="L20" s="1">
-        <v>9.508836</v>
+        <v>9.5088360000000005</v>
       </c>
       <c r="M20" s="1">
-        <v>946.404000</v>
+        <v>946.404</v>
       </c>
       <c r="N20" s="1">
-        <v>-119.824000</v>
+        <v>-119.824</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>34242.344842</v>
+        <v>34242.344841999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>9.511762</v>
+        <v>9.5117619999999992</v>
       </c>
       <c r="R20" s="1">
-        <v>953.053000</v>
+        <v>953.053</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.339000</v>
+        <v>-104.339</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>34252.831263</v>
       </c>
       <c r="V20" s="1">
-        <v>9.514675</v>
+        <v>9.5146750000000004</v>
       </c>
       <c r="W20" s="1">
-        <v>959.547000</v>
+        <v>959.54700000000003</v>
       </c>
       <c r="X20" s="1">
-        <v>-90.434900</v>
+        <v>-90.434899999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>34263.357360</v>
+        <v>34263.357360000002</v>
       </c>
       <c r="AA20" s="1">
-        <v>9.517599</v>
+        <v>9.5175990000000006</v>
       </c>
       <c r="AB20" s="1">
-        <v>966.740000</v>
+        <v>966.74</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.751100</v>
+        <v>-80.751099999999994</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>34273.579906</v>
+        <v>34273.579905999999</v>
       </c>
       <c r="AF20" s="1">
-        <v>9.520439</v>
+        <v>9.5204389999999997</v>
       </c>
       <c r="AG20" s="1">
-        <v>971.721000</v>
+        <v>971.721</v>
       </c>
       <c r="AH20" s="1">
-        <v>-80.270300</v>
+        <v>-80.270300000000006</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>34284.071283</v>
+        <v>34284.071282999997</v>
       </c>
       <c r="AK20" s="1">
-        <v>9.523353</v>
+        <v>9.5233530000000002</v>
       </c>
       <c r="AL20" s="1">
-        <v>979.716000</v>
+        <v>979.71600000000001</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.974700</v>
+        <v>-87.974699999999999</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>34295.064117</v>
+        <v>34295.064117000002</v>
       </c>
       <c r="AP20" s="1">
-        <v>9.526407</v>
+        <v>9.5264070000000007</v>
       </c>
       <c r="AQ20" s="1">
-        <v>988.924000</v>
+        <v>988.92399999999998</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.870000</v>
+        <v>-102.87</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>34305.820856</v>
+        <v>34305.820855999998</v>
       </c>
       <c r="AU20" s="1">
-        <v>9.529395</v>
+        <v>9.5293949999999992</v>
       </c>
       <c r="AV20" s="1">
-        <v>1000.290000</v>
+        <v>1000.29</v>
       </c>
       <c r="AW20" s="1">
-        <v>-124.424000</v>
+        <v>-124.42400000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>34316.889112</v>
+        <v>34316.889111999997</v>
       </c>
       <c r="AZ20" s="1">
-        <v>9.532469</v>
+        <v>9.5324690000000007</v>
       </c>
       <c r="BA20" s="1">
-        <v>1009.910000</v>
+        <v>1009.91</v>
       </c>
       <c r="BB20" s="1">
-        <v>-143.169000</v>
+        <v>-143.16900000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>34327.508426</v>
       </c>
       <c r="BE20" s="1">
-        <v>9.535419</v>
+        <v>9.5354189999999992</v>
       </c>
       <c r="BF20" s="1">
-        <v>1055.030000</v>
+        <v>1055.03</v>
       </c>
       <c r="BG20" s="1">
-        <v>-228.270000</v>
+        <v>-228.27</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>34338.841517</v>
+        <v>34338.841517000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>9.538567</v>
+        <v>9.5385670000000005</v>
       </c>
       <c r="BK20" s="1">
-        <v>1134.080000</v>
+        <v>1134.08</v>
       </c>
       <c r="BL20" s="1">
-        <v>-365.279000</v>
+        <v>-365.279</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>34349.013966</v>
+        <v>34349.013965999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>9.541393</v>
+        <v>9.5413929999999993</v>
       </c>
       <c r="BP20" s="1">
-        <v>1265.260000</v>
+        <v>1265.26</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-577.857000</v>
+        <v>-577.85699999999997</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>34359.607024</v>
+        <v>34359.607023999997</v>
       </c>
       <c r="BT20" s="1">
-        <v>9.544335</v>
+        <v>9.5443350000000002</v>
       </c>
       <c r="BU20" s="1">
-        <v>1413.320000</v>
+        <v>1413.32</v>
       </c>
       <c r="BV20" s="1">
-        <v>-805.178000</v>
+        <v>-805.178</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>34370.910353</v>
+        <v>34370.910352999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>9.547475</v>
+        <v>9.5474750000000004</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1576.050000</v>
+        <v>1576.05</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1043.330000</v>
+        <v>-1043.33</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>34383.648113</v>
+        <v>34383.648113000003</v>
       </c>
       <c r="CD20" s="1">
-        <v>9.551013</v>
+        <v>9.5510129999999993</v>
       </c>
       <c r="CE20" s="1">
-        <v>1989.360000</v>
+        <v>1989.36</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1598.060000</v>
+        <v>-1598.06</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>34210.864757</v>
+        <v>34210.864757000003</v>
       </c>
       <c r="B21" s="1">
-        <v>9.503018</v>
+        <v>9.5030180000000009</v>
       </c>
       <c r="C21" s="1">
-        <v>906.763000</v>
+        <v>906.76300000000003</v>
       </c>
       <c r="D21" s="1">
-        <v>-197.568000</v>
+        <v>-197.56800000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>34221.679030</v>
+        <v>34221.679029999999</v>
       </c>
       <c r="G21" s="1">
-        <v>9.506022</v>
+        <v>9.5060219999999997</v>
       </c>
       <c r="H21" s="1">
-        <v>924.281000</v>
+        <v>924.28099999999995</v>
       </c>
       <c r="I21" s="1">
-        <v>-167.488000</v>
+        <v>-167.488</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>34232.156024</v>
+        <v>34232.156024000004</v>
       </c>
       <c r="L21" s="1">
-        <v>9.508932</v>
+        <v>9.5089319999999997</v>
       </c>
       <c r="M21" s="1">
-        <v>946.332000</v>
+        <v>946.33199999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>-119.960000</v>
+        <v>-119.96</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>34242.694522</v>
+        <v>34242.694521999998</v>
       </c>
       <c r="Q21" s="1">
-        <v>9.511860</v>
+        <v>9.5118600000000004</v>
       </c>
       <c r="R21" s="1">
-        <v>953.052000</v>
+        <v>953.05200000000002</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.309000</v>
+        <v>-104.309</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>34253.242446</v>
+        <v>34253.242445999997</v>
       </c>
       <c r="V21" s="1">
-        <v>9.514790</v>
+        <v>9.5147899999999996</v>
       </c>
       <c r="W21" s="1">
-        <v>959.580000</v>
+        <v>959.58</v>
       </c>
       <c r="X21" s="1">
-        <v>-90.453400</v>
+        <v>-90.453400000000002</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>34263.772511</v>
+        <v>34263.772511000003</v>
       </c>
       <c r="AA21" s="1">
-        <v>9.517715</v>
+        <v>9.5177150000000008</v>
       </c>
       <c r="AB21" s="1">
-        <v>966.773000</v>
+        <v>966.77300000000002</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.778000</v>
+        <v>-80.778000000000006</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>34273.875026</v>
+        <v>34273.875026000002</v>
       </c>
       <c r="AF21" s="1">
-        <v>9.520521</v>
+        <v>9.5205210000000005</v>
       </c>
       <c r="AG21" s="1">
-        <v>971.786000</v>
+        <v>971.78599999999994</v>
       </c>
       <c r="AH21" s="1">
-        <v>-80.309100</v>
+        <v>-80.309100000000001</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>34284.334659</v>
       </c>
       <c r="AK21" s="1">
-        <v>9.523426</v>
+        <v>9.5234260000000006</v>
       </c>
       <c r="AL21" s="1">
-        <v>979.732000</v>
+        <v>979.73199999999997</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.973400</v>
+        <v>-87.973399999999998</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>34295.421733</v>
+        <v>34295.421733000003</v>
       </c>
       <c r="AP21" s="1">
-        <v>9.526506</v>
+        <v>9.5265059999999995</v>
       </c>
       <c r="AQ21" s="1">
-        <v>988.934000</v>
+        <v>988.93399999999997</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.865000</v>
+        <v>-102.86499999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>34306.179462</v>
       </c>
       <c r="AU21" s="1">
-        <v>9.529494</v>
+        <v>9.5294939999999997</v>
       </c>
       <c r="AV21" s="1">
-        <v>1000.300000</v>
+        <v>1000.3</v>
       </c>
       <c r="AW21" s="1">
-        <v>-124.421000</v>
+        <v>-124.42100000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>34317.252648</v>
+        <v>34317.252648000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>9.532570</v>
+        <v>9.5325699999999998</v>
       </c>
       <c r="BA21" s="1">
-        <v>1009.920000</v>
+        <v>1009.92</v>
       </c>
       <c r="BB21" s="1">
-        <v>-143.169000</v>
+        <v>-143.16900000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>34328.227626</v>
       </c>
       <c r="BE21" s="1">
-        <v>9.535619</v>
+        <v>9.5356190000000005</v>
       </c>
       <c r="BF21" s="1">
-        <v>1055.030000</v>
+        <v>1055.03</v>
       </c>
       <c r="BG21" s="1">
-        <v>-228.297000</v>
+        <v>-228.297</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>34339.215032</v>
       </c>
       <c r="BJ21" s="1">
-        <v>9.538671</v>
+        <v>9.5386710000000008</v>
       </c>
       <c r="BK21" s="1">
-        <v>1134.110000</v>
+        <v>1134.1099999999999</v>
       </c>
       <c r="BL21" s="1">
-        <v>-365.268000</v>
+        <v>-365.26799999999997</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>34349.410301</v>
+        <v>34349.410301000004</v>
       </c>
       <c r="BO21" s="1">
-        <v>9.541503</v>
+        <v>9.5415030000000005</v>
       </c>
       <c r="BP21" s="1">
-        <v>1265.270000</v>
+        <v>1265.27</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-577.836000</v>
+        <v>-577.83600000000001</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>34360.022671</v>
+        <v>34360.022670999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>9.544451</v>
+        <v>9.5444510000000005</v>
       </c>
       <c r="BU21" s="1">
-        <v>1413.440000</v>
+        <v>1413.44</v>
       </c>
       <c r="BV21" s="1">
-        <v>-805.293000</v>
+        <v>-805.29300000000001</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>34371.640465</v>
+        <v>34371.640464999997</v>
       </c>
       <c r="BY21" s="1">
-        <v>9.547678</v>
+        <v>9.5476779999999994</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1576.110000</v>
+        <v>1576.11</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1043.390000</v>
+        <v>-1043.3900000000001</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>34384.492304</v>
+        <v>34384.492303999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>9.551248</v>
+        <v>9.5512479999999993</v>
       </c>
       <c r="CE21" s="1">
-        <v>1989.820000</v>
+        <v>1989.82</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1600.120000</v>
+        <v>-1600.12</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>34211.209476</v>
+        <v>34211.209476000004</v>
       </c>
       <c r="B22" s="1">
-        <v>9.503114</v>
+        <v>9.5031140000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>906.811000</v>
+        <v>906.81100000000004</v>
       </c>
       <c r="D22" s="1">
-        <v>-197.427000</v>
+        <v>-197.42699999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>34222.023783</v>
+        <v>34222.023782999997</v>
       </c>
       <c r="G22" s="1">
-        <v>9.506118</v>
+        <v>9.5061180000000007</v>
       </c>
       <c r="H22" s="1">
-        <v>924.230000</v>
+        <v>924.23</v>
       </c>
       <c r="I22" s="1">
-        <v>-167.199000</v>
+        <v>-167.19900000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>34232.503721</v>
+        <v>34232.503721000001</v>
       </c>
       <c r="L22" s="1">
         <v>9.509029</v>
       </c>
       <c r="M22" s="1">
-        <v>946.434000</v>
+        <v>946.43399999999997</v>
       </c>
       <c r="N22" s="1">
-        <v>-119.817000</v>
+        <v>-119.81699999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>34243.122570</v>
+        <v>34243.12257</v>
       </c>
       <c r="Q22" s="1">
-        <v>9.511978</v>
+        <v>9.5119779999999992</v>
       </c>
       <c r="R22" s="1">
-        <v>953.075000</v>
+        <v>953.07500000000005</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.352000</v>
+        <v>-104.352</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>34253.518716</v>
+        <v>34253.518715999999</v>
       </c>
       <c r="V22" s="1">
-        <v>9.514866</v>
+        <v>9.5148659999999996</v>
       </c>
       <c r="W22" s="1">
-        <v>959.537000</v>
+        <v>959.53700000000003</v>
       </c>
       <c r="X22" s="1">
-        <v>-90.447500</v>
+        <v>-90.447500000000005</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>34264.064159</v>
+        <v>34264.064159000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>9.517796</v>
+        <v>9.5177960000000006</v>
       </c>
       <c r="AB22" s="1">
-        <v>966.764000</v>
+        <v>966.76400000000001</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.805100</v>
+        <v>-80.805099999999996</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>34274.217803</v>
       </c>
       <c r="AF22" s="1">
-        <v>9.520616</v>
+        <v>9.5206160000000004</v>
       </c>
       <c r="AG22" s="1">
-        <v>971.731000</v>
+        <v>971.73099999999999</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.311900</v>
+        <v>-80.311899999999994</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>34284.695305</v>
+        <v>34284.695305000001</v>
       </c>
       <c r="AK22" s="1">
-        <v>9.523526</v>
+        <v>9.5235260000000004</v>
       </c>
       <c r="AL22" s="1">
-        <v>979.746000</v>
+        <v>979.74599999999998</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.980500</v>
+        <v>-87.980500000000006</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>34295.785829</v>
       </c>
       <c r="AP22" s="1">
-        <v>9.526607</v>
+        <v>9.5266070000000003</v>
       </c>
       <c r="AQ22" s="1">
-        <v>988.925000</v>
+        <v>988.92499999999995</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.865000</v>
+        <v>-102.86499999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>34306.920022</v>
+        <v>34306.920021999998</v>
       </c>
       <c r="AU22" s="1">
-        <v>9.529700</v>
+        <v>9.5297000000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1000.310000</v>
+        <v>1000.31</v>
       </c>
       <c r="AW22" s="1">
-        <v>-124.411000</v>
+        <v>-124.411</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>34317.966888</v>
+        <v>34317.966888000003</v>
       </c>
       <c r="AZ22" s="1">
         <v>9.532769</v>
       </c>
       <c r="BA22" s="1">
-        <v>1009.900000</v>
+        <v>1009.9</v>
       </c>
       <c r="BB22" s="1">
-        <v>-143.159000</v>
+        <v>-143.15899999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>34328.589706</v>
+        <v>34328.589705999999</v>
       </c>
       <c r="BE22" s="1">
-        <v>9.535719</v>
+        <v>9.5357190000000003</v>
       </c>
       <c r="BF22" s="1">
-        <v>1055.020000</v>
+        <v>1055.02</v>
       </c>
       <c r="BG22" s="1">
-        <v>-228.263000</v>
+        <v>-228.26300000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>34339.590984</v>
+        <v>34339.590984000002</v>
       </c>
       <c r="BJ22" s="1">
-        <v>9.538775</v>
+        <v>9.5387749999999993</v>
       </c>
       <c r="BK22" s="1">
-        <v>1134.080000</v>
+        <v>1134.08</v>
       </c>
       <c r="BL22" s="1">
-        <v>-365.263000</v>
+        <v>-365.26299999999998</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>34349.831373</v>
+        <v>34349.831373000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>9.541620</v>
+        <v>9.54162</v>
       </c>
       <c r="BP22" s="1">
-        <v>1265.250000</v>
+        <v>1265.25</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-577.857000</v>
+        <v>-577.85699999999997</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>34360.738926</v>
+        <v>34360.738925999998</v>
       </c>
       <c r="BT22" s="1">
-        <v>9.544650</v>
+        <v>9.5446500000000007</v>
       </c>
       <c r="BU22" s="1">
-        <v>1413.430000</v>
+        <v>1413.43</v>
       </c>
       <c r="BV22" s="1">
-        <v>-805.352000</v>
+        <v>-805.35199999999998</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>34371.785295</v>
+        <v>34371.785295000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>9.547718</v>
+        <v>9.5477179999999997</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1576.130000</v>
+        <v>1576.13</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1043.400000</v>
+        <v>-1043.4000000000001</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>34384.727902</v>
+        <v>34384.727901999999</v>
       </c>
       <c r="CD22" s="1">
-        <v>9.551313</v>
+        <v>9.5513130000000004</v>
       </c>
       <c r="CE22" s="1">
-        <v>1990.000000</v>
+        <v>1990</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1599.550000</v>
+        <v>-1599.55</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>34211.551220</v>
+        <v>34211.551220000001</v>
       </c>
       <c r="B23" s="1">
         <v>9.503209</v>
       </c>
       <c r="C23" s="1">
-        <v>906.941000</v>
+        <v>906.94100000000003</v>
       </c>
       <c r="D23" s="1">
-        <v>-197.325000</v>
+        <v>-197.32499999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>34222.451797</v>
+        <v>34222.451797000002</v>
       </c>
       <c r="G23" s="1">
-        <v>9.506237</v>
+        <v>9.5062370000000005</v>
       </c>
       <c r="H23" s="1">
-        <v>924.149000</v>
+        <v>924.149</v>
       </c>
       <c r="I23" s="1">
-        <v>-166.968000</v>
+        <v>-166.96799999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>34232.928792</v>
+        <v>34232.928791999999</v>
       </c>
       <c r="L23" s="1">
-        <v>9.509147</v>
+        <v>9.5091470000000005</v>
       </c>
       <c r="M23" s="1">
-        <v>946.312000</v>
+        <v>946.31200000000001</v>
       </c>
       <c r="N23" s="1">
-        <v>-119.842000</v>
+        <v>-119.842</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>34243.405289</v>
+        <v>34243.405289000002</v>
       </c>
       <c r="Q23" s="1">
-        <v>9.512057</v>
+        <v>9.5120570000000004</v>
       </c>
       <c r="R23" s="1">
-        <v>953.093000</v>
+        <v>953.09299999999996</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.400000</v>
+        <v>-104.4</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>34253.863934</v>
+        <v>34253.863934000001</v>
       </c>
       <c r="V23" s="1">
-        <v>9.514962</v>
+        <v>9.5149620000000006</v>
       </c>
       <c r="W23" s="1">
-        <v>959.518000</v>
+        <v>959.51800000000003</v>
       </c>
       <c r="X23" s="1">
-        <v>-90.384800</v>
+        <v>-90.384799999999998</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>34264.411886</v>
+        <v>34264.411886000002</v>
       </c>
       <c r="AA23" s="1">
-        <v>9.517892</v>
+        <v>9.5178919999999998</v>
       </c>
       <c r="AB23" s="1">
-        <v>966.748000</v>
+        <v>966.74800000000005</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.804200</v>
+        <v>-80.804199999999994</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>34274.561020</v>
+        <v>34274.561020000001</v>
       </c>
       <c r="AF23" s="1">
-        <v>9.520711</v>
+        <v>9.5207110000000004</v>
       </c>
       <c r="AG23" s="1">
-        <v>971.725000</v>
+        <v>971.72500000000002</v>
       </c>
       <c r="AH23" s="1">
-        <v>-80.264200</v>
+        <v>-80.264200000000002</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>34285.297919</v>
+        <v>34285.297918999997</v>
       </c>
       <c r="AK23" s="1">
-        <v>9.523694</v>
+        <v>9.5236940000000008</v>
       </c>
       <c r="AL23" s="1">
-        <v>979.731000</v>
+        <v>979.73099999999999</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.971900</v>
+        <v>-87.971900000000005</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>34296.504004</v>
+        <v>34296.504004000002</v>
       </c>
       <c r="AP23" s="1">
-        <v>9.526807</v>
+        <v>9.5268069999999998</v>
       </c>
       <c r="AQ23" s="1">
-        <v>988.911000</v>
+        <v>988.91099999999994</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.881000</v>
+        <v>-102.881</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>34307.301445</v>
+        <v>34307.301444999997</v>
       </c>
       <c r="AU23" s="1">
-        <v>9.529806</v>
+        <v>9.5298060000000007</v>
       </c>
       <c r="AV23" s="1">
-        <v>1000.310000</v>
+        <v>1000.31</v>
       </c>
       <c r="AW23" s="1">
-        <v>-124.412000</v>
+        <v>-124.41200000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>34318.324816</v>
       </c>
       <c r="AZ23" s="1">
-        <v>9.532868</v>
+        <v>9.5328680000000006</v>
       </c>
       <c r="BA23" s="1">
-        <v>1009.920000</v>
+        <v>1009.92</v>
       </c>
       <c r="BB23" s="1">
-        <v>-143.165000</v>
+        <v>-143.16499999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>34328.951288</v>
+        <v>34328.951287999997</v>
       </c>
       <c r="BE23" s="1">
-        <v>9.535820</v>
+        <v>9.5358199999999993</v>
       </c>
       <c r="BF23" s="1">
-        <v>1055.020000</v>
+        <v>1055.02</v>
       </c>
       <c r="BG23" s="1">
-        <v>-228.244000</v>
+        <v>-228.244</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>34340.272969</v>
+        <v>34340.272968999998</v>
       </c>
       <c r="BJ23" s="1">
-        <v>9.538965</v>
+        <v>9.5389649999999993</v>
       </c>
       <c r="BK23" s="1">
-        <v>1134.100000</v>
+        <v>1134.0999999999999</v>
       </c>
       <c r="BL23" s="1">
-        <v>-365.246000</v>
+        <v>-365.24599999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>34350.534236</v>
       </c>
       <c r="BO23" s="1">
-        <v>9.541815</v>
+        <v>9.5418149999999997</v>
       </c>
       <c r="BP23" s="1">
-        <v>1265.230000</v>
+        <v>1265.23</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-577.849000</v>
+        <v>-577.84900000000005</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>34360.876287</v>
+        <v>34360.876286999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>9.544688</v>
+        <v>9.5446880000000007</v>
       </c>
       <c r="BU23" s="1">
-        <v>1413.670000</v>
+        <v>1413.67</v>
       </c>
       <c r="BV23" s="1">
-        <v>-805.487000</v>
+        <v>-805.48699999999997</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>34372.209407</v>
+        <v>34372.209407000002</v>
       </c>
       <c r="BY23" s="1">
-        <v>9.547836</v>
+        <v>9.5478360000000002</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1576.120000</v>
+        <v>1576.12</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1043.280000</v>
+        <v>-1043.28</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>34385.249694</v>
+        <v>34385.249693999998</v>
       </c>
       <c r="CD23" s="1">
-        <v>9.551458</v>
+        <v>9.5514580000000002</v>
       </c>
       <c r="CE23" s="1">
-        <v>1989.270000</v>
+        <v>1989.27</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1598.070000</v>
+        <v>-1598.07</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>34211.979801</v>
+        <v>34211.979801000001</v>
       </c>
       <c r="B24" s="1">
-        <v>9.503328</v>
+        <v>9.5033279999999998</v>
       </c>
       <c r="C24" s="1">
-        <v>906.977000</v>
+        <v>906.97699999999998</v>
       </c>
       <c r="D24" s="1">
-        <v>-197.244000</v>
+        <v>-197.244</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>34222.727605</v>
       </c>
       <c r="G24" s="1">
-        <v>9.506313</v>
+        <v>9.5063130000000005</v>
       </c>
       <c r="H24" s="1">
-        <v>923.806000</v>
+        <v>923.80600000000004</v>
       </c>
       <c r="I24" s="1">
-        <v>-167.310000</v>
+        <v>-167.31</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>34233.206551</v>
+        <v>34233.206551000003</v>
       </c>
       <c r="L24" s="1">
-        <v>9.509224</v>
+        <v>9.5092239999999997</v>
       </c>
       <c r="M24" s="1">
-        <v>946.268000</v>
+        <v>946.26800000000003</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.799000</v>
+        <v>-119.79900000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>34243.751993</v>
+        <v>34243.751992999998</v>
       </c>
       <c r="Q24" s="1">
-        <v>9.512153</v>
+        <v>9.5121529999999996</v>
       </c>
       <c r="R24" s="1">
-        <v>953.068000</v>
+        <v>953.06799999999998</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.379000</v>
+        <v>-104.379</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>34254.208651</v>
+        <v>34254.208651000001</v>
       </c>
       <c r="V24" s="1">
-        <v>9.515058</v>
+        <v>9.5150579999999998</v>
       </c>
       <c r="W24" s="1">
-        <v>959.473000</v>
+        <v>959.47299999999996</v>
       </c>
       <c r="X24" s="1">
-        <v>-90.485600</v>
+        <v>-90.485600000000005</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>34264.757071</v>
       </c>
       <c r="AA24" s="1">
-        <v>9.517988</v>
+        <v>9.5179880000000008</v>
       </c>
       <c r="AB24" s="1">
-        <v>966.826000</v>
+        <v>966.82600000000002</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.802700</v>
+        <v>-80.802700000000002</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>34275.245999</v>
+        <v>34275.245998999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>9.520902</v>
+        <v>9.5209019999999995</v>
       </c>
       <c r="AG24" s="1">
-        <v>971.749000</v>
+        <v>971.74900000000002</v>
       </c>
       <c r="AH24" s="1">
-        <v>-80.252100</v>
+        <v>-80.252099999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>34285.735394</v>
+        <v>34285.735394000003</v>
       </c>
       <c r="AK24" s="1">
-        <v>9.523815</v>
+        <v>9.5238150000000008</v>
       </c>
       <c r="AL24" s="1">
-        <v>979.703000</v>
+        <v>979.70299999999997</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.986500</v>
+        <v>-87.986500000000007</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>34296.865588</v>
+        <v>34296.865588000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>9.526907</v>
+        <v>9.5269069999999996</v>
       </c>
       <c r="AQ24" s="1">
-        <v>988.920000</v>
+        <v>988.92</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.863000</v>
+        <v>-102.863</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>34307.664521</v>
+        <v>34307.664520999999</v>
       </c>
       <c r="AU24" s="1">
-        <v>9.529907</v>
+        <v>9.5299069999999997</v>
       </c>
       <c r="AV24" s="1">
-        <v>1000.300000</v>
+        <v>1000.3</v>
       </c>
       <c r="AW24" s="1">
-        <v>-124.408000</v>
+        <v>-124.408</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>34318.684141</v>
+        <v>34318.684140999998</v>
       </c>
       <c r="AZ24" s="1">
-        <v>9.532968</v>
+        <v>9.5329680000000003</v>
       </c>
       <c r="BA24" s="1">
-        <v>1009.900000</v>
+        <v>1009.9</v>
       </c>
       <c r="BB24" s="1">
-        <v>-143.158000</v>
+        <v>-143.15799999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>34329.628824</v>
+        <v>34329.628823999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>9.536008</v>
+        <v>9.5360080000000007</v>
       </c>
       <c r="BF24" s="1">
-        <v>1055.040000</v>
+        <v>1055.04</v>
       </c>
       <c r="BG24" s="1">
-        <v>-228.256000</v>
+        <v>-228.256</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>34340.382623</v>
+        <v>34340.382622999998</v>
       </c>
       <c r="BJ24" s="1">
-        <v>9.538995</v>
+        <v>9.5389949999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1134.110000</v>
+        <v>1134.1099999999999</v>
       </c>
       <c r="BL24" s="1">
-        <v>-365.286000</v>
+        <v>-365.286</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>34350.637869</v>
+        <v>34350.637868999998</v>
       </c>
       <c r="BO24" s="1">
-        <v>9.541844</v>
+        <v>9.5418439999999993</v>
       </c>
       <c r="BP24" s="1">
-        <v>1265.260000</v>
+        <v>1265.26</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-577.860000</v>
+        <v>-577.86</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>34361.315247</v>
+        <v>34361.315246999999</v>
       </c>
       <c r="BT24" s="1">
-        <v>9.544810</v>
+        <v>9.54481</v>
       </c>
       <c r="BU24" s="1">
-        <v>1413.610000</v>
+        <v>1413.61</v>
       </c>
       <c r="BV24" s="1">
-        <v>-805.612000</v>
+        <v>-805.61199999999997</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>34372.627008</v>
+        <v>34372.627008000003</v>
       </c>
       <c r="BY24" s="1">
-        <v>9.547952</v>
+        <v>9.5479520000000004</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1576.030000</v>
+        <v>1576.03</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1043.230000</v>
+        <v>-1043.23</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>34385.772477</v>
+        <v>34385.772476999999</v>
       </c>
       <c r="CD24" s="1">
-        <v>9.551603</v>
+        <v>9.5516030000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>1989.720000</v>
+        <v>1989.72</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1598.760000</v>
+        <v>-1598.76</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>34212.251603</v>
+        <v>34212.251602999997</v>
       </c>
       <c r="B25" s="1">
-        <v>9.503403</v>
+        <v>9.5034030000000005</v>
       </c>
       <c r="C25" s="1">
-        <v>907.002000</v>
+        <v>907.00199999999995</v>
       </c>
       <c r="D25" s="1">
-        <v>-197.342000</v>
+        <v>-197.34200000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>34223.071332</v>
       </c>
       <c r="G25" s="1">
-        <v>9.506409</v>
+        <v>9.5064089999999997</v>
       </c>
       <c r="H25" s="1">
-        <v>923.906000</v>
+        <v>923.90599999999995</v>
       </c>
       <c r="I25" s="1">
-        <v>-167.190000</v>
+        <v>-167.19</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>34233.554742</v>
       </c>
       <c r="L25" s="1">
-        <v>9.509321</v>
+        <v>9.5093209999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>946.409000</v>
+        <v>946.40899999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.845000</v>
+        <v>-119.845</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>34244.101209</v>
       </c>
       <c r="Q25" s="1">
-        <v>9.512250</v>
+        <v>9.5122499999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>953.044000</v>
+        <v>953.04399999999998</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.311000</v>
+        <v>-104.31100000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>34254.894650</v>
+        <v>34254.894650000002</v>
       </c>
       <c r="V25" s="1">
-        <v>9.515249</v>
+        <v>9.5152490000000007</v>
       </c>
       <c r="W25" s="1">
-        <v>959.474000</v>
+        <v>959.47400000000005</v>
       </c>
       <c r="X25" s="1">
-        <v>-90.459000</v>
+        <v>-90.459000000000003</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>34265.456925</v>
+        <v>34265.456924999999</v>
       </c>
       <c r="AA25" s="1">
-        <v>9.518182</v>
+        <v>9.5181819999999995</v>
       </c>
       <c r="AB25" s="1">
-        <v>966.828000</v>
+        <v>966.82799999999997</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.750100</v>
+        <v>-80.750100000000003</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>34275.589695</v>
+        <v>34275.589695000002</v>
       </c>
       <c r="AF25" s="1">
-        <v>9.520997</v>
+        <v>9.5209969999999995</v>
       </c>
       <c r="AG25" s="1">
-        <v>971.746000</v>
+        <v>971.74599999999998</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.288000</v>
+        <v>-80.287999999999997</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>34286.082594</v>
       </c>
       <c r="AK25" s="1">
-        <v>9.523912</v>
+        <v>9.5239119999999993</v>
       </c>
       <c r="AL25" s="1">
-        <v>979.744000</v>
+        <v>979.74400000000003</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.990300</v>
+        <v>-87.990300000000005</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>34297.224195</v>
+        <v>34297.224195000003</v>
       </c>
       <c r="AP25" s="1">
-        <v>9.527007</v>
+        <v>9.5270069999999993</v>
       </c>
       <c r="AQ25" s="1">
-        <v>988.923000</v>
+        <v>988.923</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.889000</v>
+        <v>-102.889</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>34308.336069</v>
+        <v>34308.336068999997</v>
       </c>
       <c r="AU25" s="1">
-        <v>9.530093</v>
+        <v>9.5300930000000008</v>
       </c>
       <c r="AV25" s="1">
-        <v>1000.280000</v>
+        <v>1000.28</v>
       </c>
       <c r="AW25" s="1">
-        <v>-124.421000</v>
+        <v>-124.42100000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>34319.118103</v>
+        <v>34319.118103000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>9.533088</v>
+        <v>9.5330879999999993</v>
       </c>
       <c r="BA25" s="1">
-        <v>1009.930000</v>
+        <v>1009.93</v>
       </c>
       <c r="BB25" s="1">
-        <v>-143.186000</v>
+        <v>-143.18600000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>34330.062366</v>
+        <v>34330.062365999998</v>
       </c>
       <c r="BE25" s="1">
-        <v>9.536128</v>
+        <v>9.5361279999999997</v>
       </c>
       <c r="BF25" s="1">
-        <v>1055.040000</v>
+        <v>1055.04</v>
       </c>
       <c r="BG25" s="1">
-        <v>-228.232000</v>
+        <v>-228.232</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>34340.743178</v>
+        <v>34340.743177999997</v>
       </c>
       <c r="BJ25" s="1">
-        <v>9.539095</v>
+        <v>9.5390949999999997</v>
       </c>
       <c r="BK25" s="1">
-        <v>1134.120000</v>
+        <v>1134.1199999999999</v>
       </c>
       <c r="BL25" s="1">
-        <v>-365.245000</v>
+        <v>-365.245</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>34351.069387</v>
+        <v>34351.069387000003</v>
       </c>
       <c r="BO25" s="1">
-        <v>9.541964</v>
+        <v>9.5419640000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1265.220000</v>
+        <v>1265.22</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-577.825000</v>
+        <v>-577.82500000000005</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>34361.741310</v>
+        <v>34361.741309999998</v>
       </c>
       <c r="BT25" s="1">
-        <v>9.544928</v>
+        <v>9.5449280000000005</v>
       </c>
       <c r="BU25" s="1">
-        <v>1413.500000</v>
+        <v>1413.5</v>
       </c>
       <c r="BV25" s="1">
-        <v>-805.713000</v>
+        <v>-805.71299999999997</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>34373.073903</v>
+        <v>34373.073902999997</v>
       </c>
       <c r="BY25" s="1">
         <v>9.548076</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1576.000000</v>
+        <v>1576</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1043.280000</v>
+        <v>-1043.28</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>34386.318642</v>
+        <v>34386.318641999998</v>
       </c>
       <c r="CD25" s="1">
         <v>9.551755</v>
       </c>
       <c r="CE25" s="1">
-        <v>1990.200000</v>
+        <v>1990.2</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1599.720000</v>
+        <v>-1599.72</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>34212.591826</v>
+        <v>34212.591826000003</v>
       </c>
       <c r="B26" s="1">
-        <v>9.503498</v>
+        <v>9.5034980000000004</v>
       </c>
       <c r="C26" s="1">
-        <v>907.000000</v>
+        <v>907</v>
       </c>
       <c r="D26" s="1">
-        <v>-197.215000</v>
+        <v>-197.215</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>34223.418535</v>
+        <v>34223.418534999997</v>
       </c>
       <c r="G26" s="1">
-        <v>9.506505</v>
+        <v>9.5065050000000006</v>
       </c>
       <c r="H26" s="1">
-        <v>924.347000</v>
+        <v>924.34699999999998</v>
       </c>
       <c r="I26" s="1">
-        <v>-167.005000</v>
+        <v>-167.005</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>34233.897974</v>
       </c>
       <c r="L26" s="1">
-        <v>9.509416</v>
+        <v>9.5094159999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>946.324000</v>
+        <v>946.32399999999996</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.796000</v>
+        <v>-119.79600000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>34244.799047</v>
       </c>
       <c r="Q26" s="1">
-        <v>9.512444</v>
+        <v>9.5124440000000003</v>
       </c>
       <c r="R26" s="1">
-        <v>953.068000</v>
+        <v>953.06799999999998</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.333000</v>
+        <v>-104.333</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>34255.237355</v>
+        <v>34255.237354999997</v>
       </c>
       <c r="V26" s="1">
-        <v>9.515344</v>
+        <v>9.5153440000000007</v>
       </c>
       <c r="W26" s="1">
-        <v>959.514000</v>
+        <v>959.51400000000001</v>
       </c>
       <c r="X26" s="1">
-        <v>-90.443500</v>
+        <v>-90.4435</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>34265.803628</v>
+        <v>34265.803628000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>9.518279</v>
+        <v>9.5182789999999997</v>
       </c>
       <c r="AB26" s="1">
-        <v>966.800000</v>
+        <v>966.8</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.828200</v>
+        <v>-80.828199999999995</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>34275.934910</v>
+        <v>34275.934910000004</v>
       </c>
       <c r="AF26" s="1">
-        <v>9.521093</v>
+        <v>9.5210930000000005</v>
       </c>
       <c r="AG26" s="1">
-        <v>971.766000</v>
+        <v>971.76599999999996</v>
       </c>
       <c r="AH26" s="1">
-        <v>-80.300800</v>
+        <v>-80.300799999999995</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>34286.968417</v>
+        <v>34286.968416999996</v>
       </c>
       <c r="AK26" s="1">
-        <v>9.524158</v>
+        <v>9.5241579999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>979.707000</v>
+        <v>979.70699999999999</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.934300</v>
+        <v>-87.934299999999993</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>34297.892338</v>
+        <v>34297.892337999998</v>
       </c>
       <c r="AP26" s="1">
-        <v>9.527192</v>
+        <v>9.5271919999999994</v>
       </c>
       <c r="AQ26" s="1">
-        <v>988.916000</v>
+        <v>988.91600000000005</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.872000</v>
+        <v>-102.872</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>34308.793876</v>
+        <v>34308.793876000003</v>
       </c>
       <c r="AU26" s="1">
-        <v>9.530221</v>
+        <v>9.5302209999999992</v>
       </c>
       <c r="AV26" s="1">
-        <v>1000.290000</v>
+        <v>1000.29</v>
       </c>
       <c r="AW26" s="1">
-        <v>-124.395000</v>
+        <v>-124.395</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>34319.398342</v>
       </c>
       <c r="AZ26" s="1">
-        <v>9.533166</v>
+        <v>9.5331659999999996</v>
       </c>
       <c r="BA26" s="1">
-        <v>1009.910000</v>
+        <v>1009.91</v>
       </c>
       <c r="BB26" s="1">
-        <v>-143.164000</v>
+        <v>-143.16399999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>34330.422459</v>
+        <v>34330.422459000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>9.536228</v>
+        <v>9.5362279999999995</v>
       </c>
       <c r="BF26" s="1">
-        <v>1055.020000</v>
+        <v>1055.02</v>
       </c>
       <c r="BG26" s="1">
-        <v>-228.245000</v>
+        <v>-228.245</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>34341.118188</v>
@@ -6829,75 +7245,76 @@
         <v>9.539199</v>
       </c>
       <c r="BK26" s="1">
-        <v>1134.100000</v>
+        <v>1134.0999999999999</v>
       </c>
       <c r="BL26" s="1">
-        <v>-365.267000</v>
+        <v>-365.267</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>34351.471828</v>
+        <v>34351.471828000002</v>
       </c>
       <c r="BO26" s="1">
-        <v>9.542076</v>
+        <v>9.5420759999999998</v>
       </c>
       <c r="BP26" s="1">
-        <v>1265.260000</v>
+        <v>1265.26</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-577.835000</v>
+        <v>-577.83500000000004</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>34362.163901</v>
       </c>
       <c r="BT26" s="1">
-        <v>9.545046</v>
+        <v>9.5450459999999993</v>
       </c>
       <c r="BU26" s="1">
-        <v>1413.420000</v>
+        <v>1413.42</v>
       </c>
       <c r="BV26" s="1">
-        <v>-805.821000</v>
+        <v>-805.82100000000003</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>34373.493023</v>
+        <v>34373.493023000003</v>
       </c>
       <c r="BY26" s="1">
-        <v>9.548193</v>
+        <v>9.5481929999999995</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1576.040000</v>
+        <v>1576.04</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1043.350000</v>
+        <v>-1043.3499999999999</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>34386.849292</v>
+        <v>34386.849291999999</v>
       </c>
       <c r="CD26" s="1">
-        <v>9.551903</v>
+        <v>9.5519029999999994</v>
       </c>
       <c r="CE26" s="1">
-        <v>1989.490000</v>
+        <v>1989.49</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1598.360000</v>
+        <v>-1598.36</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>